--- a/RUDN/Correlations/deep.Corr_in_IBT.nan.xlsx
+++ b/RUDN/Correlations/deep.Corr_in_IBT.nan.xlsx
@@ -14,7 +14,16 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="138">
+  <si>
+    <t>FP.CPI.TOTL.ZG:IBT</t>
+  </si>
+  <si>
+    <t>IC.REG.COST.PC.FE.ZS:IBT</t>
+  </si>
+  <si>
+    <t>IC.REG.COST.PC.MA.ZS:IBT</t>
+  </si>
   <si>
     <t>IC.REG.DURS.FE:IBT</t>
   </si>
@@ -22,15 +31,159 @@
     <t>IC.REG.DURS.MA:IBT</t>
   </si>
   <si>
+    <t>IC.REG.PROC.FE:IBT</t>
+  </si>
+  <si>
     <t>IC.REG.PROC.MA:IBT</t>
   </si>
   <si>
+    <t>IT.CEL.SETS.P2:IBT</t>
+  </si>
+  <si>
+    <t>IT.MLT.MAIN.P2:IBT</t>
+  </si>
+  <si>
+    <t>IT.NET.USER.P2:IBT</t>
+  </si>
+  <si>
+    <t>NE.TRD.GNFS.ZS:IBT</t>
+  </si>
+  <si>
+    <t>NY.GDP.MKTP.CD:IBT</t>
+  </si>
+  <si>
+    <t>NY.GDP.MKTP.KD.ZG:IBT</t>
+  </si>
+  <si>
+    <t>NY.GDP.PCAP.CD:IBT</t>
+  </si>
+  <si>
+    <t>NY.GNP.ATLS.CD:IBT</t>
+  </si>
+  <si>
+    <t>NY.GNP.PCAP.CD:IBT</t>
+  </si>
+  <si>
+    <t>NY.GNP.PCAP.PP.CD:IBT</t>
+  </si>
+  <si>
+    <t>SG.GEN.PARL.ZS:IBT</t>
+  </si>
+  <si>
+    <t>SH.ANM.ALLW.ZS:IBT</t>
+  </si>
+  <si>
+    <t>SH.DYN.MORT:IBT</t>
+  </si>
+  <si>
+    <t>SH.HIV.ARTC.MA.ZS:IBT</t>
+  </si>
+  <si>
+    <t>SH.HIV.ARTC.ZS:IBT</t>
+  </si>
+  <si>
+    <t>SH.IMM.IDPT:IBT</t>
+  </si>
+  <si>
+    <t>SH.IMM.MEAS:IBT</t>
+  </si>
+  <si>
+    <t>SL.EMP.1524.SP.FE.ZS:IBT</t>
+  </si>
+  <si>
+    <t>SL.EMP.1524.SP.MA.ZS:IBT</t>
+  </si>
+  <si>
+    <t>SL.EMP.1524.SP.ZS:IBT</t>
+  </si>
+  <si>
+    <t>SL.EMP.TOTL.SP.FE.ZS:IBT</t>
+  </si>
+  <si>
+    <t>SL.GDP.PCAP.EM.KD:IBT</t>
+  </si>
+  <si>
+    <t>SL.TLF.ACTI.1524.FE.ZS:IBT</t>
+  </si>
+  <si>
+    <t>SL.TLF.ACTI.1524.MA.ZS:IBT</t>
+  </si>
+  <si>
+    <t>SL.TLF.CACT.FE.ZS:IBT</t>
+  </si>
+  <si>
+    <t>SL.TLF.CACT.FM.ZS:IBT</t>
+  </si>
+  <si>
+    <t>SL.TLF.TOTL.FE.IN:IBT</t>
+  </si>
+  <si>
+    <t>SL.TLF.TOTL.IN:IBT</t>
+  </si>
+  <si>
+    <t>SL.UEM.1524.FM.ZS:IBT</t>
+  </si>
+  <si>
+    <t>SP.DYN.IMRT.IN:IBT</t>
+  </si>
+  <si>
+    <t>SP.POP.0014.FE.IN:IBT</t>
+  </si>
+  <si>
+    <t>SP.POP.0014.TO.ZS:IBT</t>
+  </si>
+  <si>
+    <t>SP.POP.1564.FE.IN:IBT</t>
+  </si>
+  <si>
+    <t>SP.POP.1564.MA.IN:IBT</t>
+  </si>
+  <si>
+    <t>SP.POP.1564.TO:IBT</t>
+  </si>
+  <si>
+    <t>SP.POP.65UP.FE.IN:IBT</t>
+  </si>
+  <si>
+    <t>SP.POP.DPND:IBT</t>
+  </si>
+  <si>
+    <t>SP.POP.TOTL.FE.IN:IBT</t>
+  </si>
+  <si>
+    <t>SP.POP.TOTL:IBT</t>
+  </si>
+  <si>
+    <t>FP.CPI.TOTL.ZG:IBT:cor-value</t>
+  </si>
+  <si>
+    <t>FP.CPI.TOTL.ZG:IBT:p-value</t>
+  </si>
+  <si>
+    <t>IC.REG.COST.PC.FE.ZS:IBT:cor-value</t>
+  </si>
+  <si>
+    <t>IC.REG.COST.PC.FE.ZS:IBT:p-value</t>
+  </si>
+  <si>
+    <t>IC.REG.COST.PC.MA.ZS:IBT:cor-value</t>
+  </si>
+  <si>
+    <t>IC.REG.COST.PC.MA.ZS:IBT:p-value</t>
+  </si>
+  <si>
     <t>IC.REG.DURS.FE:IBT:cor-value</t>
   </si>
   <si>
     <t>IC.REG.DURS.FE:IBT:p-value</t>
   </si>
   <si>
+    <t>IC.REG.DURS.MA:IBT:cor-value</t>
+  </si>
+  <si>
+    <t>IC.REG.DURS.MA:IBT:p-value</t>
+  </si>
+  <si>
     <t>IC.REG.PROC.FE:IBT:cor-value</t>
   </si>
   <si>
@@ -41,6 +194,240 @@
   </si>
   <si>
     <t>IC.REG.PROC.MA:IBT:p-value</t>
+  </si>
+  <si>
+    <t>IT.CEL.SETS.P2:IBT:cor-value</t>
+  </si>
+  <si>
+    <t>IT.CEL.SETS.P2:IBT:p-value</t>
+  </si>
+  <si>
+    <t>IT.MLT.MAIN.P2:IBT:cor-value</t>
+  </si>
+  <si>
+    <t>IT.MLT.MAIN.P2:IBT:p-value</t>
+  </si>
+  <si>
+    <t>IT.NET.USER.P2:IBT:cor-value</t>
+  </si>
+  <si>
+    <t>IT.NET.USER.P2:IBT:p-value</t>
+  </si>
+  <si>
+    <t>NY.GDP.MKTP.CD:IBT:cor-value</t>
+  </si>
+  <si>
+    <t>NY.GDP.MKTP.CD:IBT:p-value</t>
+  </si>
+  <si>
+    <t>NY.GDP.MKTP.KD.ZG:IBT:cor-value</t>
+  </si>
+  <si>
+    <t>NY.GDP.MKTP.KD.ZG:IBT:p-value</t>
+  </si>
+  <si>
+    <t>NY.GDP.PCAP.CD:IBT:cor-value</t>
+  </si>
+  <si>
+    <t>NY.GDP.PCAP.CD:IBT:p-value</t>
+  </si>
+  <si>
+    <t>NY.GNP.ATLS.CD:IBT:cor-value</t>
+  </si>
+  <si>
+    <t>NY.GNP.ATLS.CD:IBT:p-value</t>
+  </si>
+  <si>
+    <t>NY.GNP.PCAP.CD:IBT:cor-value</t>
+  </si>
+  <si>
+    <t>NY.GNP.PCAP.CD:IBT:p-value</t>
+  </si>
+  <si>
+    <t>NY.GNP.PCAP.PP.CD:IBT:cor-value</t>
+  </si>
+  <si>
+    <t>NY.GNP.PCAP.PP.CD:IBT:p-value</t>
+  </si>
+  <si>
+    <t>SG.GEN.PARL.ZS:IBT:cor-value</t>
+  </si>
+  <si>
+    <t>SG.GEN.PARL.ZS:IBT:p-value</t>
+  </si>
+  <si>
+    <t>SH.ANM.ALLW.ZS:IBT:cor-value</t>
+  </si>
+  <si>
+    <t>SH.ANM.ALLW.ZS:IBT:p-value</t>
+  </si>
+  <si>
+    <t>SH.DYN.MORT:IBT:cor-value</t>
+  </si>
+  <si>
+    <t>SH.DYN.MORT:IBT:p-value</t>
+  </si>
+  <si>
+    <t>SH.HIV.ARTC.FE.ZS:IBT:cor-value</t>
+  </si>
+  <si>
+    <t>SH.HIV.ARTC.FE.ZS:IBT:p-value</t>
+  </si>
+  <si>
+    <t>SH.HIV.ARTC.MA.ZS:IBT:cor-value</t>
+  </si>
+  <si>
+    <t>SH.HIV.ARTC.MA.ZS:IBT:p-value</t>
+  </si>
+  <si>
+    <t>SH.HIV.ARTC.ZS:IBT:cor-value</t>
+  </si>
+  <si>
+    <t>SH.HIV.ARTC.ZS:IBT:p-value</t>
+  </si>
+  <si>
+    <t>SH.IMM.IDPT:IBT:cor-value</t>
+  </si>
+  <si>
+    <t>SH.IMM.IDPT:IBT:p-value</t>
+  </si>
+  <si>
+    <t>SH.IMM.MEAS:IBT:cor-value</t>
+  </si>
+  <si>
+    <t>SH.IMM.MEAS:IBT:p-value</t>
+  </si>
+  <si>
+    <t>SL.EMP.1524.SP.FE.ZS:IBT:cor-value</t>
+  </si>
+  <si>
+    <t>SL.EMP.1524.SP.FE.ZS:IBT:p-value</t>
+  </si>
+  <si>
+    <t>SL.EMP.1524.SP.MA.ZS:IBT:cor-value</t>
+  </si>
+  <si>
+    <t>SL.EMP.1524.SP.MA.ZS:IBT:p-value</t>
+  </si>
+  <si>
+    <t>SL.EMP.1524.SP.ZS:IBT:cor-value</t>
+  </si>
+  <si>
+    <t>SL.EMP.1524.SP.ZS:IBT:p-value</t>
+  </si>
+  <si>
+    <t>SL.EMP.TOTL.SP.FE.ZS:IBT:cor-value</t>
+  </si>
+  <si>
+    <t>SL.EMP.TOTL.SP.FE.ZS:IBT:p-value</t>
+  </si>
+  <si>
+    <t>SL.GDP.PCAP.EM.KD:IBT:cor-value</t>
+  </si>
+  <si>
+    <t>SL.GDP.PCAP.EM.KD:IBT:p-value</t>
+  </si>
+  <si>
+    <t>SL.TLF.ACTI.1524.FE.ZS:IBT:cor-value</t>
+  </si>
+  <si>
+    <t>SL.TLF.ACTI.1524.FE.ZS:IBT:p-value</t>
+  </si>
+  <si>
+    <t>SL.TLF.ACTI.1524.MA.ZS:IBT:cor-value</t>
+  </si>
+  <si>
+    <t>SL.TLF.ACTI.1524.MA.ZS:IBT:p-value</t>
+  </si>
+  <si>
+    <t>SL.TLF.CACT.FE.ZS:IBT:cor-value</t>
+  </si>
+  <si>
+    <t>SL.TLF.CACT.FE.ZS:IBT:p-value</t>
+  </si>
+  <si>
+    <t>SL.TLF.CACT.FM.ZS:IBT:cor-value</t>
+  </si>
+  <si>
+    <t>SL.TLF.CACT.FM.ZS:IBT:p-value</t>
+  </si>
+  <si>
+    <t>SL.TLF.TOTL.FE.IN:IBT:cor-value</t>
+  </si>
+  <si>
+    <t>SL.TLF.TOTL.FE.IN:IBT:p-value</t>
+  </si>
+  <si>
+    <t>SL.TLF.TOTL.IN:IBT:cor-value</t>
+  </si>
+  <si>
+    <t>SL.TLF.TOTL.IN:IBT:p-value</t>
+  </si>
+  <si>
+    <t>SL.UEM.1524.FM.ZS:IBT:cor-value</t>
+  </si>
+  <si>
+    <t>SL.UEM.1524.FM.ZS:IBT:p-value</t>
+  </si>
+  <si>
+    <t>SP.DYN.IMRT.IN:IBT:cor-value</t>
+  </si>
+  <si>
+    <t>SP.DYN.IMRT.IN:IBT:p-value</t>
+  </si>
+  <si>
+    <t>SP.POP.0014.FE.IN:IBT:cor-value</t>
+  </si>
+  <si>
+    <t>SP.POP.0014.FE.IN:IBT:p-value</t>
+  </si>
+  <si>
+    <t>SP.POP.0014.TO.ZS:IBT:cor-value</t>
+  </si>
+  <si>
+    <t>SP.POP.0014.TO.ZS:IBT:p-value</t>
+  </si>
+  <si>
+    <t>SP.POP.1564.FE.IN:IBT:cor-value</t>
+  </si>
+  <si>
+    <t>SP.POP.1564.FE.IN:IBT:p-value</t>
+  </si>
+  <si>
+    <t>SP.POP.1564.MA.IN:IBT:cor-value</t>
+  </si>
+  <si>
+    <t>SP.POP.1564.MA.IN:IBT:p-value</t>
+  </si>
+  <si>
+    <t>SP.POP.1564.TO:IBT:cor-value</t>
+  </si>
+  <si>
+    <t>SP.POP.1564.TO:IBT:p-value</t>
+  </si>
+  <si>
+    <t>SP.POP.65UP.FE.IN:IBT:cor-value</t>
+  </si>
+  <si>
+    <t>SP.POP.65UP.FE.IN:IBT:p-value</t>
+  </si>
+  <si>
+    <t>SP.POP.DPND:IBT:cor-value</t>
+  </si>
+  <si>
+    <t>SP.POP.DPND:IBT:p-value</t>
+  </si>
+  <si>
+    <t>SP.POP.TOTL.FE.IN:IBT:cor-value</t>
+  </si>
+  <si>
+    <t>SP.POP.TOTL.FE.IN:IBT:p-value</t>
+  </si>
+  <si>
+    <t>SP.POP.TOTL:IBT:cor-value</t>
+  </si>
+  <si>
+    <t>SP.POP.TOTL:IBT:p-value</t>
   </si>
 </sst>
 </file>
@@ -398,13 +785,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:AU93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:47">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -414,71 +801,6996 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:47">
       <c r="A2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2">
+        <v>46</v>
+      </c>
+      <c r="E2">
+        <v>0.5160163211077123</v>
+      </c>
+      <c r="F2">
+        <v>0.5158086399020261</v>
+      </c>
+      <c r="G2">
+        <v>0.4688370661883058</v>
+      </c>
+      <c r="H2">
+        <v>0.4664920337875483</v>
+      </c>
+      <c r="I2">
+        <v>-0.4402979132388026</v>
+      </c>
+      <c r="J2">
+        <v>0.6949675177890825</v>
+      </c>
+      <c r="K2">
+        <v>-0.5368512762973167</v>
+      </c>
+      <c r="L2">
+        <v>0.7534490031579546</v>
+      </c>
+      <c r="S2">
+        <v>-0.4745480043468794</v>
+      </c>
+      <c r="T2">
+        <v>-0.4587607966094811</v>
+      </c>
+      <c r="U2">
+        <v>0.4401042685209394</v>
+      </c>
+      <c r="W2">
+        <v>-0.5499434438735041</v>
+      </c>
+      <c r="AB2">
+        <v>0.4773679902063002</v>
+      </c>
+      <c r="AD2">
+        <v>-0.4431985646953306</v>
+      </c>
+      <c r="AE2">
+        <v>0.4303775963781926</v>
+      </c>
+      <c r="AF2">
+        <v>0.4450697877424105</v>
+      </c>
+      <c r="AG2">
+        <v>0.4010745610472875</v>
+      </c>
+      <c r="AH2">
+        <v>0.4091212766471603</v>
+      </c>
+      <c r="AI2">
+        <v>-0.4793480513008337</v>
+      </c>
+      <c r="AJ2">
+        <v>-0.4798826570185238</v>
+      </c>
+      <c r="AL2">
+        <v>0.4422748167896497</v>
+      </c>
+      <c r="AM2">
+        <v>-0.6052387629663426</v>
+      </c>
+      <c r="AN2">
+        <v>0.3618586340187626</v>
+      </c>
+      <c r="AO2">
+        <v>-0.4602866197415387</v>
+      </c>
+      <c r="AP2">
+        <v>-0.4634202084536262</v>
+      </c>
+      <c r="AQ2">
+        <v>-0.4618789613795917</v>
+      </c>
+      <c r="AR2">
+        <v>-0.5209817236363528</v>
+      </c>
+      <c r="AT2">
+        <v>-0.4892435087603476</v>
+      </c>
+      <c r="AU2">
+        <v>-0.4888023303081183</v>
+      </c>
+    </row>
+    <row r="3" spans="1:47">
+      <c r="A3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E3">
+        <v>0.05890566766097946</v>
+      </c>
+      <c r="F3">
+        <v>0.05902530880540757</v>
+      </c>
+      <c r="G3">
+        <v>0.09082335745613873</v>
+      </c>
+      <c r="H3">
+        <v>0.09267136891139907</v>
+      </c>
+      <c r="I3">
+        <v>0.1151179710709995</v>
+      </c>
+      <c r="J3">
+        <v>0.00580025292339608</v>
+      </c>
+      <c r="K3">
+        <v>0.04776775731978598</v>
+      </c>
+      <c r="L3">
+        <v>0.001860904040383175</v>
+      </c>
+      <c r="S3">
+        <v>0.08643067627018443</v>
+      </c>
+      <c r="T3">
+        <v>0.09894916372056037</v>
+      </c>
+      <c r="U3">
+        <v>0.1152965272356953</v>
+      </c>
+      <c r="W3">
+        <v>0.04160621862931502</v>
+      </c>
+      <c r="AB3">
+        <v>0.08431746372668038</v>
+      </c>
+      <c r="AD3">
+        <v>0.1124658811166856</v>
+      </c>
+      <c r="AE3">
+        <v>0.1245098446707298</v>
+      </c>
+      <c r="AF3">
+        <v>0.1107773573221181</v>
+      </c>
+      <c r="AG3">
+        <v>0.1552361685933149</v>
+      </c>
+      <c r="AH3">
+        <v>0.1463466076327309</v>
+      </c>
+      <c r="AI3">
+        <v>0.08285550906813251</v>
+      </c>
+      <c r="AJ3">
+        <v>0.08246386326306339</v>
+      </c>
+      <c r="AL3">
+        <v>0.1133058912980132</v>
+      </c>
+      <c r="AM3">
+        <v>0.02182269709530074</v>
+      </c>
+      <c r="AN3">
+        <v>0.20360786848363</v>
+      </c>
+      <c r="AO3">
+        <v>0.09768751897126246</v>
+      </c>
+      <c r="AP3">
+        <v>0.09513152407182877</v>
+      </c>
+      <c r="AQ3">
+        <v>0.09638280718560299</v>
+      </c>
+      <c r="AR3">
+        <v>0.05609688570351577</v>
+      </c>
+      <c r="AT3">
+        <v>0.07581557767544872</v>
+      </c>
+      <c r="AU3">
+        <v>0.07612010176125919</v>
+      </c>
+    </row>
+    <row r="4" spans="1:47">
+      <c r="A4" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4">
+        <v>0.3603729064831995</v>
+      </c>
+      <c r="D4">
+        <v>0.9999999997920355</v>
+      </c>
+      <c r="E4">
+        <v>0.9442312290693194</v>
+      </c>
+      <c r="F4">
+        <v>0.9443916441038707</v>
+      </c>
+      <c r="G4">
+        <v>0.9825097886532449</v>
+      </c>
+      <c r="H4">
+        <v>0.9832985053883599</v>
+      </c>
+      <c r="I4">
+        <v>-0.9851296448830629</v>
+      </c>
+      <c r="J4">
+        <v>0.5813690419722211</v>
+      </c>
+      <c r="K4">
+        <v>-0.931197557997506</v>
+      </c>
+      <c r="L4">
+        <v>0.6849027643340322</v>
+      </c>
+      <c r="M4">
+        <v>-0.9723478786597509</v>
+      </c>
+      <c r="N4">
+        <v>0.5845652436509129</v>
+      </c>
+      <c r="O4">
+        <v>-0.9739236497914443</v>
+      </c>
+      <c r="P4">
+        <v>-0.9662125089695964</v>
+      </c>
+      <c r="Q4">
+        <v>-0.973292694535475</v>
+      </c>
+      <c r="R4">
+        <v>-0.9668617007624721</v>
+      </c>
+      <c r="S4">
+        <v>-0.9654571139473945</v>
+      </c>
+      <c r="U4">
+        <v>0.9832081440084852</v>
+      </c>
+      <c r="W4">
+        <v>-0.9103319331349388</v>
+      </c>
+      <c r="X4">
+        <v>-0.9868368421078323</v>
+      </c>
+      <c r="Y4">
+        <v>-0.9757697836779027</v>
+      </c>
+      <c r="Z4">
+        <v>0.9809964678734991</v>
+      </c>
+      <c r="AA4">
+        <v>0.9683625780488053</v>
+      </c>
+      <c r="AB4">
+        <v>0.9752584991866756</v>
+      </c>
+      <c r="AC4">
+        <v>0.9676950671449421</v>
+      </c>
+      <c r="AD4">
+        <v>-0.9739237395367448</v>
+      </c>
+      <c r="AE4">
+        <v>0.9858977459273849</v>
+      </c>
+      <c r="AF4">
+        <v>0.9819296280782406</v>
+      </c>
+      <c r="AG4">
+        <v>0.9795852132578047</v>
+      </c>
+      <c r="AH4">
+        <v>0.9756764433214049</v>
+      </c>
+      <c r="AI4">
+        <v>-0.9353248523203233</v>
+      </c>
+      <c r="AJ4">
+        <v>-0.953504955103304</v>
+      </c>
+      <c r="AK4">
+        <v>-0.4422708471543955</v>
+      </c>
+      <c r="AL4">
+        <v>0.9827176675530669</v>
+      </c>
+      <c r="AM4">
+        <v>-0.8341481501393277</v>
+      </c>
+      <c r="AN4">
+        <v>0.9937273692350942</v>
+      </c>
+      <c r="AO4">
+        <v>-0.9748347273506351</v>
+      </c>
+      <c r="AP4">
+        <v>-0.9731788009195793</v>
+      </c>
+      <c r="AQ4">
+        <v>-0.9740025079892571</v>
+      </c>
+      <c r="AR4">
+        <v>-0.9188332145019149</v>
+      </c>
+      <c r="AT4">
+        <v>-0.9589473794246698</v>
+      </c>
+      <c r="AU4">
+        <v>-0.9591335660824376</v>
+      </c>
+    </row>
+    <row r="5" spans="1:47">
+      <c r="A5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5">
+        <v>0.2056078164811366</v>
+      </c>
+      <c r="D5">
+        <v>1.167959185787912e-57</v>
+      </c>
+      <c r="E5">
+        <v>3.849129182966153e-07</v>
+      </c>
+      <c r="F5">
+        <v>3.784504212782008e-07</v>
+      </c>
+      <c r="G5">
+        <v>3.980423350046158e-10</v>
+      </c>
+      <c r="H5">
+        <v>3.022942665348709e-10</v>
+      </c>
+      <c r="I5">
+        <v>1.511961260923395e-10</v>
+      </c>
+      <c r="J5">
+        <v>0.02921390877603381</v>
+      </c>
+      <c r="K5">
+        <v>1.318883459378517e-06</v>
+      </c>
+      <c r="L5">
+        <v>0.00687703676591907</v>
+      </c>
+      <c r="M5">
+        <v>6.081183947747159e-09</v>
+      </c>
+      <c r="N5">
+        <v>0.02812911534480271</v>
+      </c>
+      <c r="O5">
+        <v>4.291215526426599e-09</v>
+      </c>
+      <c r="P5">
+        <v>1.996979820467276e-08</v>
+      </c>
+      <c r="Q5">
+        <v>4.946370118191557e-09</v>
+      </c>
+      <c r="R5">
+        <v>1.780047121009427e-08</v>
+      </c>
+      <c r="S5">
+        <v>2.276550012693388e-08</v>
+      </c>
+      <c r="U5">
+        <v>3.121802616914659e-10</v>
+      </c>
+      <c r="W5">
+        <v>6.171216811294571e-06</v>
+      </c>
+      <c r="X5">
+        <v>7.300804675020153e-11</v>
+      </c>
+      <c r="Y5">
+        <v>2.773182423042854e-09</v>
+      </c>
+      <c r="Z5">
+        <v>6.527492709598847e-10</v>
+      </c>
+      <c r="AA5">
+        <v>1.352295055941221e-08</v>
+      </c>
+      <c r="AB5">
+        <v>3.139861555517033e-09</v>
+      </c>
+      <c r="AC5">
+        <v>1.530554863183682e-08</v>
+      </c>
+      <c r="AD5">
+        <v>4.291127748144848e-09</v>
+      </c>
+      <c r="AE5">
+        <v>1.101698454206556e-10</v>
+      </c>
+      <c r="AF5">
+        <v>4.835236917681261e-10</v>
+      </c>
+      <c r="AG5">
+        <v>1.000197833011978e-09</v>
+      </c>
+      <c r="AH5">
+        <v>2.837327488620914e-09</v>
+      </c>
+      <c r="AI5">
+        <v>9.182308822533203e-07</v>
+      </c>
+      <c r="AJ5">
+        <v>1.319055032725234e-07</v>
+      </c>
+      <c r="AK5">
+        <v>0.1133095103097296</v>
+      </c>
+      <c r="AL5">
+        <v>3.706532726355165e-10</v>
+      </c>
+      <c r="AM5">
+        <v>0.0002080865679385695</v>
+      </c>
+      <c r="AN5">
+        <v>8.676521200233566e-13</v>
+      </c>
+      <c r="AO5">
+        <v>3.473488166428485e-09</v>
+      </c>
+      <c r="AP5">
+        <v>5.073038852298652e-09</v>
+      </c>
+      <c r="AQ5">
+        <v>4.214658229566874e-09</v>
+      </c>
+      <c r="AR5">
+        <v>3.459385494656302e-06</v>
+      </c>
+      <c r="AT5">
+        <v>6.324431589712429e-08</v>
+      </c>
+      <c r="AU5">
+        <v>6.156767276405732e-08</v>
+      </c>
+    </row>
+    <row r="6" spans="1:47">
+      <c r="A6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6">
+        <v>0.3603729549756407</v>
+      </c>
+      <c r="E6">
+        <v>0.944232537066387</v>
+      </c>
+      <c r="F6">
+        <v>0.944392950410046</v>
+      </c>
+      <c r="G6">
+        <v>0.9825100321140151</v>
+      </c>
+      <c r="H6">
+        <v>0.9832987348387726</v>
+      </c>
+      <c r="I6">
+        <v>-0.9851296804462797</v>
+      </c>
+      <c r="J6">
+        <v>0.5813718551201382</v>
+      </c>
+      <c r="K6">
+        <v>-0.9311975828752814</v>
+      </c>
+      <c r="L6">
+        <v>0.6849075444917911</v>
+      </c>
+      <c r="M6">
+        <v>-0.9723480428879322</v>
+      </c>
+      <c r="N6">
+        <v>0.5845714855284601</v>
+      </c>
+      <c r="O6">
+        <v>-0.9739238130118159</v>
+      </c>
+      <c r="P6">
+        <v>-0.9662130298375886</v>
+      </c>
+      <c r="Q6">
+        <v>-0.9732932676022945</v>
+      </c>
+      <c r="R6">
+        <v>-0.966861265531564</v>
+      </c>
+      <c r="S6">
+        <v>-0.9654567513973007</v>
+      </c>
+      <c r="U6">
+        <v>0.9832074679731221</v>
+      </c>
+      <c r="W6">
+        <v>-0.9103318756178419</v>
+      </c>
+      <c r="X6">
+        <v>-0.9868364457618496</v>
+      </c>
+      <c r="Y6">
+        <v>-0.9757686690493191</v>
+      </c>
+      <c r="Z6">
+        <v>0.9809963988554867</v>
+      </c>
+      <c r="AA6">
+        <v>0.9683631628384302</v>
+      </c>
+      <c r="AB6">
+        <v>0.9752587918742435</v>
+      </c>
+      <c r="AC6">
+        <v>0.967696092365109</v>
+      </c>
+      <c r="AD6">
+        <v>-0.9739232189896687</v>
+      </c>
+      <c r="AE6">
+        <v>0.9858980618296689</v>
+      </c>
+      <c r="AF6">
+        <v>0.981929996718233</v>
+      </c>
+      <c r="AG6">
+        <v>0.9795862069192944</v>
+      </c>
+      <c r="AH6">
+        <v>0.9756776008049923</v>
+      </c>
+      <c r="AI6">
+        <v>-0.9353233024472397</v>
+      </c>
+      <c r="AJ6">
+        <v>-0.9535039350012622</v>
+      </c>
+      <c r="AK6">
+        <v>-0.4422648830757262</v>
+      </c>
+      <c r="AL6">
+        <v>0.9827170496603208</v>
+      </c>
+      <c r="AM6">
+        <v>-0.8341486325850237</v>
+      </c>
+      <c r="AN6">
+        <v>0.9937260785737713</v>
+      </c>
+      <c r="AO6">
+        <v>-0.9748341166357016</v>
+      </c>
+      <c r="AP6">
+        <v>-0.9731781784602652</v>
+      </c>
+      <c r="AQ6">
+        <v>-0.9740018913068594</v>
+      </c>
+      <c r="AR6">
+        <v>-0.9188323821667088</v>
+      </c>
+      <c r="AT6">
+        <v>-0.9589468638848272</v>
+      </c>
+      <c r="AU6">
+        <v>-0.9591330445174134</v>
+      </c>
+    </row>
+    <row r="7" spans="1:47">
+      <c r="A7" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7">
+        <v>0.2056077510037403</v>
+      </c>
+      <c r="E7">
+        <v>3.848598579301299e-07</v>
+      </c>
+      <c r="F7">
+        <v>3.783981657215033e-07</v>
+      </c>
+      <c r="G7">
+        <v>3.980093011487416e-10</v>
+      </c>
+      <c r="H7">
+        <v>3.022694989058696e-10</v>
+      </c>
+      <c r="I7">
+        <v>1.511939681352518e-10</v>
+      </c>
+      <c r="J7">
+        <v>0.02921294049072388</v>
+      </c>
+      <c r="K7">
+        <v>1.318880670322637e-06</v>
+      </c>
+      <c r="L7">
+        <v>0.00687649098381896</v>
+      </c>
+      <c r="M7">
+        <v>6.080969414576618e-09</v>
+      </c>
+      <c r="N7">
+        <v>0.02812702671608128</v>
+      </c>
+      <c r="O7">
+        <v>4.291055884594797e-09</v>
+      </c>
+      <c r="P7">
+        <v>1.996797373570681e-08</v>
+      </c>
+      <c r="Q7">
+        <v>4.945739475365096e-09</v>
+      </c>
+      <c r="R7">
+        <v>1.780185715897882e-08</v>
+      </c>
+      <c r="S7">
+        <v>2.276691586675014e-08</v>
+      </c>
+      <c r="U7">
+        <v>3.122552236657666e-10</v>
+      </c>
+      <c r="W7">
+        <v>6.171239774055398e-06</v>
+      </c>
+      <c r="X7">
+        <v>7.302117514660442e-11</v>
+      </c>
+      <c r="Y7">
+        <v>2.773941246822453e-09</v>
+      </c>
+      <c r="Z7">
+        <v>6.527633979543803e-10</v>
+      </c>
+      <c r="AA7">
+        <v>1.352146802728142e-08</v>
+      </c>
+      <c r="AB7">
+        <v>3.139640686519928e-09</v>
+      </c>
+      <c r="AC7">
+        <v>1.530266851758041e-08</v>
+      </c>
+      <c r="AD7">
+        <v>4.291636906729883e-09</v>
+      </c>
+      <c r="AE7">
+        <v>1.101551138526418e-10</v>
+      </c>
+      <c r="AF7">
+        <v>4.834648954167277e-10</v>
+      </c>
+      <c r="AG7">
+        <v>9.999079153525659e-10</v>
+      </c>
+      <c r="AH7">
+        <v>2.836524569897707e-09</v>
+      </c>
+      <c r="AI7">
+        <v>9.183597876405195e-07</v>
+      </c>
+      <c r="AJ7">
+        <v>1.319225745524264e-07</v>
+      </c>
+      <c r="AK7">
+        <v>0.1133149477513678</v>
+      </c>
+      <c r="AL7">
+        <v>3.707322969985283e-10</v>
+      </c>
+      <c r="AM7">
+        <v>0.0002080831661094614</v>
+      </c>
+      <c r="AN7">
+        <v>8.687214352241053e-13</v>
+      </c>
+      <c r="AO7">
+        <v>3.47398937651315e-09</v>
+      </c>
+      <c r="AP7">
+        <v>5.073738456239707e-09</v>
+      </c>
+      <c r="AQ7">
+        <v>4.215252488890974e-09</v>
+      </c>
+      <c r="AR7">
+        <v>3.459591975643135e-06</v>
+      </c>
+      <c r="AT7">
+        <v>6.324901037320889e-08</v>
+      </c>
+      <c r="AU7">
+        <v>6.157231758776209e-08</v>
+      </c>
+    </row>
+    <row r="8" spans="1:47">
+      <c r="A8" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F8">
         <v>0.9999998009651516</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3">
+      <c r="I8">
+        <v>-0.9800593416673081</v>
+      </c>
+      <c r="J8">
+        <v>0.7932187144625188</v>
+      </c>
+      <c r="K8">
+        <v>-0.9895102556927479</v>
+      </c>
+      <c r="L8">
+        <v>0.7722810371783803</v>
+      </c>
+      <c r="U8">
+        <v>0.9812276166874047</v>
+      </c>
+      <c r="W8">
+        <v>-0.9836239362595518</v>
+      </c>
+      <c r="AB8">
+        <v>0.9841494070306784</v>
+      </c>
+      <c r="AD8">
+        <v>-0.9865554166894717</v>
+      </c>
+      <c r="AL8">
+        <v>0.9818739546450892</v>
+      </c>
+    </row>
+    <row r="9" spans="1:47">
+      <c r="A9" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F9">
         <v>8.975663158400334e-40</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4">
+      <c r="I9">
+        <v>8.695579661153281e-10</v>
+      </c>
+      <c r="J9">
+        <v>0.0007110922598356362</v>
+      </c>
+      <c r="K9">
+        <v>1.880611840794743e-11</v>
+      </c>
+      <c r="L9">
+        <v>0.001207747442682601</v>
+      </c>
+      <c r="U9">
+        <v>6.068391909183875e-10</v>
+      </c>
+      <c r="W9">
+        <v>2.688189243052154e-10</v>
+      </c>
+      <c r="AB9">
+        <v>2.212931308621917e-10</v>
+      </c>
+      <c r="AD9">
+        <v>8.283826358946476e-11</v>
+      </c>
+      <c r="AL9">
+        <v>4.924718410945397e-10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:47">
+      <c r="A10" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I10">
+        <v>-0.9801262089000097</v>
+      </c>
+      <c r="J10">
+        <v>0.7929061969409125</v>
+      </c>
+      <c r="K10">
+        <v>-0.9894946423715699</v>
+      </c>
+      <c r="L10">
+        <v>0.7720983309807756</v>
+      </c>
+      <c r="U10">
+        <v>0.9813047737549017</v>
+      </c>
+      <c r="W10">
+        <v>-0.9835870472206962</v>
+      </c>
+      <c r="AB10">
+        <v>0.9841884963901525</v>
+      </c>
+      <c r="AD10">
+        <v>-0.9866123859256424</v>
+      </c>
+      <c r="AL10">
+        <v>0.9819514222155666</v>
+      </c>
+    </row>
+    <row r="11" spans="1:47">
+      <c r="A11" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="I11">
+        <v>8.523316706925146e-10</v>
+      </c>
+      <c r="J11">
+        <v>0.0007170425998095652</v>
+      </c>
+      <c r="K11">
+        <v>1.897405746211758e-11</v>
+      </c>
+      <c r="L11">
+        <v>0.001213052189526457</v>
+      </c>
+      <c r="U11">
+        <v>5.921255864938257e-10</v>
+      </c>
+      <c r="W11">
+        <v>2.72451050155768e-10</v>
+      </c>
+      <c r="AB11">
+        <v>2.180572270648744e-10</v>
+      </c>
+      <c r="AD11">
+        <v>8.076427738870168e-11</v>
+      </c>
+      <c r="AL11">
+        <v>4.800578227654491e-10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:47">
+      <c r="A12" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E12">
         <v>0.9852823199990158</v>
       </c>
-      <c r="C4">
+      <c r="F12">
         <v>0.9853582934165487</v>
       </c>
-      <c r="D4">
+      <c r="H12">
         <v>0.9999814114440391</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5">
+      <c r="I12">
+        <v>-0.9960718359190999</v>
+      </c>
+      <c r="J12">
+        <v>0.7167210869016748</v>
+      </c>
+      <c r="K12">
+        <v>-0.9791119189988884</v>
+      </c>
+      <c r="L12">
+        <v>0.7585048527614153</v>
+      </c>
+      <c r="U12">
+        <v>0.9951825272032403</v>
+      </c>
+      <c r="W12">
+        <v>-0.9662093001240124</v>
+      </c>
+      <c r="AB12">
+        <v>0.9944429374051769</v>
+      </c>
+      <c r="AD12">
+        <v>-0.9934488141070702</v>
+      </c>
+      <c r="AL12">
+        <v>0.9954268520364489</v>
+      </c>
+    </row>
+    <row r="13" spans="1:47">
+      <c r="A13" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E13">
         <v>1.421646677943413e-10</v>
       </c>
-      <c r="C5">
+      <c r="F13">
         <v>1.378405025678334e-10</v>
       </c>
-      <c r="D5">
+      <c r="H13">
         <v>5.955916732188363e-28</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6">
+      <c r="I13">
+        <v>5.259824133796507e-14</v>
+      </c>
+      <c r="J13">
+        <v>0.003921843852924062</v>
+      </c>
+      <c r="K13">
+        <v>1.14647350001273e-09</v>
+      </c>
+      <c r="L13">
+        <v>0.001663143215882286</v>
+      </c>
+      <c r="U13">
+        <v>1.78615887661754e-13</v>
+      </c>
+      <c r="W13">
+        <v>1.998104102890924e-08</v>
+      </c>
+      <c r="AB13">
+        <v>4.201327167105041e-13</v>
+      </c>
+      <c r="AD13">
+        <v>1.125400077282382e-12</v>
+      </c>
+      <c r="AL13">
+        <v>1.307747130178223e-13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:47">
+      <c r="A14" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E14">
         <v>0.9845871676532514</v>
       </c>
-      <c r="C6">
+      <c r="F14">
         <v>0.9846669492441161</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7">
+      <c r="I14">
+        <v>-0.9959571559409919</v>
+      </c>
+      <c r="J14">
+        <v>0.7132030780206765</v>
+      </c>
+      <c r="K14">
+        <v>-0.978246301123583</v>
+      </c>
+      <c r="L14">
+        <v>0.7560832484045019</v>
+      </c>
+      <c r="U14">
+        <v>0.9951825362342852</v>
+      </c>
+      <c r="W14">
+        <v>-0.9651571366961667</v>
+      </c>
+      <c r="AB14">
+        <v>0.9940611546361242</v>
+      </c>
+      <c r="AD14">
+        <v>-0.9932652881676403</v>
+      </c>
+      <c r="AL14">
+        <v>0.9954313067854064</v>
+      </c>
+    </row>
+    <row r="15" spans="1:47">
+      <c r="A15" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E15">
         <v>1.872403678716191e-10</v>
       </c>
-      <c r="C7">
+      <c r="F15">
         <v>1.815310405582309e-10</v>
+      </c>
+      <c r="I15">
+        <v>6.249547172969662e-14</v>
+      </c>
+      <c r="J15">
+        <v>0.004187677371036324</v>
+      </c>
+      <c r="K15">
+        <v>1.460020893803285e-09</v>
+      </c>
+      <c r="L15">
+        <v>0.001755665221529208</v>
+      </c>
+      <c r="U15">
+        <v>1.786138820874353e-13</v>
+      </c>
+      <c r="W15">
+        <v>2.39621333119478e-08</v>
+      </c>
+      <c r="AB15">
+        <v>6.254185678340314e-13</v>
+      </c>
+      <c r="AD15">
+        <v>1.327792672366362e-12</v>
+      </c>
+      <c r="AL15">
+        <v>1.300134815863753e-13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:47">
+      <c r="A16" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="L16">
+        <v>-0.736602048529127</v>
+      </c>
+      <c r="U16">
+        <v>-0.9945776021394463</v>
+      </c>
+      <c r="AL16">
+        <v>-0.9943726034945722</v>
+      </c>
+    </row>
+    <row r="17" spans="1:47">
+      <c r="A17" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="L17">
+        <v>0.002658058386879245</v>
+      </c>
+      <c r="U17">
+        <v>3.627343172786004e-13</v>
+      </c>
+      <c r="AL17">
+        <v>4.529958990761814e-13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:47">
+      <c r="A18" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I18">
+        <v>-0.6930974958527327</v>
+      </c>
+      <c r="K18">
+        <v>-0.8256538534976057</v>
+      </c>
+      <c r="L18">
+        <v>0.8262246385004633</v>
+      </c>
+      <c r="U18">
+        <v>0.6973626463689002</v>
+      </c>
+      <c r="AD18">
+        <v>-0.7222999763273344</v>
+      </c>
+      <c r="AL18">
+        <v>0.6997401261452693</v>
+      </c>
+    </row>
+    <row r="19" spans="1:47">
+      <c r="A19" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I19">
+        <v>0.005989632423707246</v>
+      </c>
+      <c r="K19">
+        <v>0.0002753791977485209</v>
+      </c>
+      <c r="L19">
+        <v>0.0002703684246011758</v>
+      </c>
+      <c r="U19">
+        <v>0.005564550390101994</v>
+      </c>
+      <c r="AD19">
+        <v>0.003527625710137421</v>
+      </c>
+      <c r="AL19">
+        <v>0.005338042549958036</v>
+      </c>
+    </row>
+    <row r="20" spans="1:47">
+      <c r="A20" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I20">
+        <v>0.9700027516184945</v>
+      </c>
+      <c r="L20">
+        <v>-0.7883877091260301</v>
+      </c>
+      <c r="U20">
+        <v>-0.97882515373239</v>
+      </c>
+      <c r="AL20">
+        <v>-0.9796721743007284</v>
+      </c>
+    </row>
+    <row r="21" spans="1:47">
+      <c r="A21" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I21">
+        <v>9.860490651031564e-09</v>
+      </c>
+      <c r="L21">
+        <v>0.0008076271759346872</v>
+      </c>
+      <c r="U21">
+        <v>1.243441235115063e-09</v>
+      </c>
+      <c r="AL21">
+        <v>9.750883644577333e-10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:47">
+      <c r="A22" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B22">
+        <v>-0.3884520273911037</v>
+      </c>
+      <c r="E22">
+        <v>-0.9734659001839731</v>
+      </c>
+      <c r="F22">
+        <v>-0.9735275593209312</v>
+      </c>
+      <c r="G22">
+        <v>-0.9822269222732076</v>
+      </c>
+      <c r="H22">
+        <v>-0.9820940239230875</v>
+      </c>
+      <c r="I22">
+        <v>0.9918201435880535</v>
+      </c>
+      <c r="J22">
+        <v>-0.6754218747646801</v>
+      </c>
+      <c r="K22">
+        <v>0.9557165036851365</v>
+      </c>
+      <c r="L22">
+        <v>-0.6724297494146353</v>
+      </c>
+      <c r="N22">
+        <v>-0.545877506027419</v>
+      </c>
+      <c r="O22">
+        <v>0.9980173077898153</v>
+      </c>
+      <c r="P22">
+        <v>0.9919171717143319</v>
+      </c>
+      <c r="Q22">
+        <v>0.9956059951620683</v>
+      </c>
+      <c r="R22">
+        <v>0.9779415569121807</v>
+      </c>
+      <c r="S22">
+        <v>0.9744522791048346</v>
+      </c>
+      <c r="U22">
+        <v>-0.9826287033625328</v>
+      </c>
+      <c r="W22">
+        <v>0.9395697566581923</v>
+      </c>
+      <c r="X22">
+        <v>0.9441892925850593</v>
+      </c>
+      <c r="Y22">
+        <v>0.9219979917519503</v>
+      </c>
+      <c r="AB22">
+        <v>-0.9899812109449099</v>
+      </c>
+      <c r="AD22">
+        <v>0.9832918966126589</v>
+      </c>
+      <c r="AE22">
+        <v>-0.9908095467653834</v>
+      </c>
+      <c r="AF22">
+        <v>-0.9923716851615816</v>
+      </c>
+      <c r="AG22">
+        <v>-0.9805281284311055</v>
+      </c>
+      <c r="AH22">
+        <v>-0.9763781202148094</v>
+      </c>
+      <c r="AI22">
+        <v>0.9379075248272947</v>
+      </c>
+      <c r="AJ22">
+        <v>0.9580231633266829</v>
+      </c>
+      <c r="AK22">
+        <v>0.4269132384935248</v>
+      </c>
+      <c r="AL22">
+        <v>-0.982202880956231</v>
+      </c>
+      <c r="AM22">
+        <v>0.8855789515936949</v>
+      </c>
+      <c r="AN22">
+        <v>-0.9697115987867673</v>
+      </c>
+      <c r="AO22">
+        <v>0.9772664083165405</v>
+      </c>
+      <c r="AP22">
+        <v>0.9761935076400666</v>
+      </c>
+      <c r="AQ22">
+        <v>0.9767297689040304</v>
+      </c>
+      <c r="AR22">
+        <v>0.9343539310049443</v>
+      </c>
+      <c r="AT22">
+        <v>0.9689168432176629</v>
+      </c>
+      <c r="AU22">
+        <v>0.9689986274373119</v>
+      </c>
+    </row>
+    <row r="23" spans="1:47">
+      <c r="A23" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B23">
+        <v>0.1698843912566172</v>
+      </c>
+      <c r="E23">
+        <v>4.758775429947004e-09</v>
+      </c>
+      <c r="F23">
+        <v>4.693436504986248e-09</v>
+      </c>
+      <c r="G23">
+        <v>4.379955350763719e-10</v>
+      </c>
+      <c r="H23">
+        <v>4.578859212403764e-10</v>
+      </c>
+      <c r="I23">
+        <v>4.249534859362936e-12</v>
+      </c>
+      <c r="J23">
+        <v>0.00802763803164418</v>
+      </c>
+      <c r="K23">
+        <v>9.893949951252792e-08</v>
+      </c>
+      <c r="L23">
+        <v>0.008420059700564385</v>
+      </c>
+      <c r="N23">
+        <v>0.04345342670831675</v>
+      </c>
+      <c r="O23">
+        <v>8.733290873719195e-16</v>
+      </c>
+      <c r="P23">
+        <v>3.956744589866617e-12</v>
+      </c>
+      <c r="Q23">
+        <v>1.029348536944902e-13</v>
+      </c>
+      <c r="R23">
+        <v>1.586074084253759e-09</v>
+      </c>
+      <c r="S23">
+        <v>3.799351428727526e-09</v>
+      </c>
+      <c r="U23">
+        <v>3.821763143484992e-10</v>
+      </c>
+      <c r="W23">
+        <v>6.167412463991106e-07</v>
+      </c>
+      <c r="X23">
+        <v>3.866173252103748e-07</v>
+      </c>
+      <c r="Y23">
+        <v>2.744122208071259e-06</v>
+      </c>
+      <c r="AB23">
+        <v>1.429029540394604e-11</v>
+      </c>
+      <c r="AD23">
+        <v>3.030083638726215e-10</v>
+      </c>
+      <c r="AE23">
+        <v>8.529924373502917e-12</v>
+      </c>
+      <c r="AF23">
+        <v>2.798683899649053e-12</v>
+      </c>
+      <c r="AG23">
+        <v>7.546532220215184e-10</v>
+      </c>
+      <c r="AH23">
+        <v>2.383926833220427e-09</v>
+      </c>
+      <c r="AI23">
+        <v>7.231457341070669e-07</v>
+      </c>
+      <c r="AJ23">
+        <v>7.213733611309927e-08</v>
+      </c>
+      <c r="AK23">
+        <v>0.1279082015740689</v>
+      </c>
+      <c r="AL23">
+        <v>4.415394820391787e-10</v>
+      </c>
+      <c r="AM23">
+        <v>2.521082915164844e-05</v>
+      </c>
+      <c r="AN23">
+        <v>1.044224576343198e-08</v>
+      </c>
+      <c r="AO23">
+        <v>1.897792735044034e-09</v>
+      </c>
+      <c r="AP23">
+        <v>2.496923519902397e-09</v>
+      </c>
+      <c r="AQ23">
+        <v>2.180422542411798e-09</v>
+      </c>
+      <c r="AR23">
+        <v>1.001964765526333e-06</v>
+      </c>
+      <c r="AT23">
+        <v>1.217693234464795e-08</v>
+      </c>
+      <c r="AU23">
+        <v>1.19880835775041e-08</v>
+      </c>
+    </row>
+    <row r="24" spans="1:47">
+      <c r="A24" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B24">
+        <v>0.407927614706985</v>
+      </c>
+      <c r="E24">
+        <v>0.6107497128059092</v>
+      </c>
+      <c r="F24">
+        <v>0.6106120001285337</v>
+      </c>
+      <c r="G24">
+        <v>0.61300955253072</v>
+      </c>
+      <c r="H24">
+        <v>0.6111088331287148</v>
+      </c>
+      <c r="I24">
+        <v>-0.5927098224134196</v>
+      </c>
+      <c r="J24">
+        <v>0.6223082812262857</v>
+      </c>
+      <c r="K24">
+        <v>-0.6174318279969793</v>
+      </c>
+      <c r="L24">
+        <v>0.8150316625378656</v>
+      </c>
+      <c r="O24">
+        <v>-0.5263844024196165</v>
+      </c>
+      <c r="P24">
+        <v>-0.5987414605835293</v>
+      </c>
+      <c r="Q24">
+        <v>-0.5899568732694856</v>
+      </c>
+      <c r="R24">
+        <v>-0.5862933255523165</v>
+      </c>
+      <c r="S24">
+        <v>-0.6125407497217142</v>
+      </c>
+      <c r="T24">
+        <v>-0.2284030188434469</v>
+      </c>
+      <c r="U24">
+        <v>0.5877040566383858</v>
+      </c>
+      <c r="W24">
+        <v>-0.6234710316761667</v>
+      </c>
+      <c r="X24">
+        <v>-0.5535140171752192</v>
+      </c>
+      <c r="Y24">
+        <v>-0.5007453475792257</v>
+      </c>
+      <c r="AB24">
+        <v>0.6084117731182783</v>
+      </c>
+      <c r="AD24">
+        <v>-0.5752104192281786</v>
+      </c>
+      <c r="AE24">
+        <v>0.5816298904296235</v>
+      </c>
+      <c r="AF24">
+        <v>0.5854339346994998</v>
+      </c>
+      <c r="AG24">
+        <v>0.584137023191001</v>
+      </c>
+      <c r="AH24">
+        <v>0.5977441248687435</v>
+      </c>
+      <c r="AI24">
+        <v>-0.5773155451507462</v>
+      </c>
+      <c r="AJ24">
+        <v>-0.5918733244617991</v>
+      </c>
+      <c r="AL24">
+        <v>0.586141101802683</v>
+      </c>
+      <c r="AM24">
+        <v>-0.6314238094572374</v>
+      </c>
+      <c r="AN24">
+        <v>0.5390381233538357</v>
+      </c>
+      <c r="AO24">
+        <v>-0.5923009297770687</v>
+      </c>
+      <c r="AP24">
+        <v>-0.5929490436075755</v>
+      </c>
+      <c r="AQ24">
+        <v>-0.5926343180472344</v>
+      </c>
+      <c r="AR24">
+        <v>-0.6037710564832551</v>
+      </c>
+      <c r="AT24">
+        <v>-0.6033684032498956</v>
+      </c>
+      <c r="AU24">
+        <v>-0.6030590613208626</v>
+      </c>
+    </row>
+    <row r="25" spans="1:47">
+      <c r="A25" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B25">
+        <v>0.1476434307573933</v>
+      </c>
+      <c r="E25">
+        <v>0.02033800428506322</v>
+      </c>
+      <c r="F25">
+        <v>0.02037414889089412</v>
+      </c>
+      <c r="G25">
+        <v>0.01975176933035152</v>
+      </c>
+      <c r="H25">
+        <v>0.02024397599430805</v>
+      </c>
+      <c r="I25">
+        <v>0.02550085218582599</v>
+      </c>
+      <c r="J25">
+        <v>0.01747297055403405</v>
+      </c>
+      <c r="K25">
+        <v>0.01864162611508247</v>
+      </c>
+      <c r="L25">
+        <v>0.000383189726754971</v>
+      </c>
+      <c r="O25">
+        <v>0.05315198631517763</v>
+      </c>
+      <c r="P25">
+        <v>0.02367638794086693</v>
+      </c>
+      <c r="Q25">
+        <v>0.02636771473363334</v>
+      </c>
+      <c r="R25">
+        <v>0.02755527948745084</v>
+      </c>
+      <c r="S25">
+        <v>0.01987231980619011</v>
+      </c>
+      <c r="T25">
+        <v>0.4322219528080589</v>
+      </c>
+      <c r="U25">
+        <v>0.02709334620967802</v>
+      </c>
+      <c r="W25">
+        <v>0.01720271875263631</v>
+      </c>
+      <c r="X25">
+        <v>0.04003215222977138</v>
+      </c>
+      <c r="Y25">
+        <v>0.06817739790937465</v>
+      </c>
+      <c r="AB25">
+        <v>0.02095823380849098</v>
+      </c>
+      <c r="AD25">
+        <v>0.0313916814560758</v>
+      </c>
+      <c r="AE25">
+        <v>0.02912422643649011</v>
+      </c>
+      <c r="AF25">
+        <v>0.02783954927257718</v>
+      </c>
+      <c r="AG25">
+        <v>0.02827268115915481</v>
+      </c>
+      <c r="AH25">
+        <v>0.02397107954721835</v>
+      </c>
+      <c r="AI25">
+        <v>0.03063415058767358</v>
+      </c>
+      <c r="AJ25">
+        <v>0.02576196021160919</v>
+      </c>
+      <c r="AL25">
+        <v>0.02760547340540698</v>
+      </c>
+      <c r="AM25">
+        <v>0.01543845305475885</v>
+      </c>
+      <c r="AN25">
+        <v>0.04669503378278339</v>
+      </c>
+      <c r="AO25">
+        <v>0.02562823670932285</v>
+      </c>
+      <c r="AP25">
+        <v>0.02542654664128532</v>
+      </c>
+      <c r="AQ25">
+        <v>0.02552433867549769</v>
+      </c>
+      <c r="AR25">
+        <v>0.02223152961331747</v>
+      </c>
+      <c r="AT25">
+        <v>0.02234469091009361</v>
+      </c>
+      <c r="AU25">
+        <v>0.02243192222992228</v>
+      </c>
+    </row>
+    <row r="26" spans="1:47">
+      <c r="A26" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B26">
+        <v>-0.35132237681741</v>
+      </c>
+      <c r="E26">
+        <v>-0.9591312588309073</v>
+      </c>
+      <c r="F26">
+        <v>-0.9592143114452107</v>
+      </c>
+      <c r="G26">
+        <v>-0.9740516456241983</v>
+      </c>
+      <c r="H26">
+        <v>-0.9741254438083032</v>
+      </c>
+      <c r="I26">
+        <v>0.9871870208719034</v>
+      </c>
+      <c r="J26">
+        <v>-0.631870729966898</v>
+      </c>
+      <c r="K26">
+        <v>0.9362941848743853</v>
+      </c>
+      <c r="L26">
+        <v>-0.644243819084895</v>
+      </c>
+      <c r="P26">
+        <v>0.983097512773748</v>
+      </c>
+      <c r="Q26">
+        <v>0.9899473531263289</v>
+      </c>
+      <c r="R26">
+        <v>0.9661456800933792</v>
+      </c>
+      <c r="S26">
+        <v>0.9616842960483081</v>
+      </c>
+      <c r="U26">
+        <v>-0.9746743111059781</v>
+      </c>
+      <c r="W26">
+        <v>0.9168003282939006</v>
+      </c>
+      <c r="X26">
+        <v>0.9513328905938794</v>
+      </c>
+      <c r="Y26">
+        <v>0.9330007524162038</v>
+      </c>
+      <c r="AB26">
+        <v>-0.9833127766716034</v>
+      </c>
+      <c r="AD26">
+        <v>0.973653963761686</v>
+      </c>
+      <c r="AE26">
+        <v>-0.9876285080640644</v>
+      </c>
+      <c r="AF26">
+        <v>-0.9880713801656789</v>
+      </c>
+      <c r="AG26">
+        <v>-0.982889577333411</v>
+      </c>
+      <c r="AH26">
+        <v>-0.9775735754924708</v>
+      </c>
+      <c r="AI26">
+        <v>0.9190624734941958</v>
+      </c>
+      <c r="AJ26">
+        <v>0.9419792038955502</v>
+      </c>
+      <c r="AK26">
+        <v>0.4535979968773726</v>
+      </c>
+      <c r="AL26">
+        <v>-0.9740023717515714</v>
+      </c>
+      <c r="AM26">
+        <v>0.8547785977660248</v>
+      </c>
+      <c r="AN26">
+        <v>-0.968834963976042</v>
+      </c>
+      <c r="AO26">
+        <v>0.966385576718964</v>
+      </c>
+      <c r="AP26">
+        <v>0.9648274136740614</v>
+      </c>
+      <c r="AQ26">
+        <v>0.9656026543628867</v>
+      </c>
+      <c r="AR26">
+        <v>0.912369084147166</v>
+      </c>
+      <c r="AT26">
+        <v>0.9541298609015346</v>
+      </c>
+      <c r="AU26">
+        <v>0.9542518431152915</v>
+      </c>
+    </row>
+    <row r="27" spans="1:47">
+      <c r="A27" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B27">
+        <v>0.2180577615401074</v>
+      </c>
+      <c r="E27">
+        <v>6.158822230714921e-08</v>
+      </c>
+      <c r="F27">
+        <v>6.085208222402742e-08</v>
+      </c>
+      <c r="G27">
+        <v>4.167530289778042e-09</v>
+      </c>
+      <c r="H27">
+        <v>4.097572842635171e-09</v>
+      </c>
+      <c r="I27">
+        <v>6.214961676156864e-11</v>
+      </c>
+      <c r="J27">
+        <v>0.01534357305540296</v>
+      </c>
+      <c r="K27">
+        <v>8.404795017195438e-07</v>
+      </c>
+      <c r="L27">
+        <v>0.01288871728293256</v>
+      </c>
+      <c r="P27">
+        <v>3.24648417524047e-10</v>
+      </c>
+      <c r="Q27">
+        <v>1.458145087526849e-11</v>
+      </c>
+      <c r="R27">
+        <v>2.02050323184531e-08</v>
+      </c>
+      <c r="S27">
+        <v>4.205565012075098e-08</v>
+      </c>
+      <c r="U27">
+        <v>3.607221470078531e-09</v>
+      </c>
+      <c r="W27">
+        <v>3.994881186194821e-06</v>
+      </c>
+      <c r="X27">
+        <v>1.726539047879527e-07</v>
+      </c>
+      <c r="Y27">
+        <v>1.129085370216695e-06</v>
+      </c>
+      <c r="AB27">
+        <v>3.007569845849021e-10</v>
+      </c>
+      <c r="AD27">
+        <v>4.561814493433051e-09</v>
+      </c>
+      <c r="AE27">
+        <v>5.040610085050454e-11</v>
+      </c>
+      <c r="AF27">
+        <v>4.054207367894272e-11</v>
+      </c>
+      <c r="AG27">
+        <v>3.492039976249703e-10</v>
+      </c>
+      <c r="AH27">
+        <v>1.750205699291695e-09</v>
+      </c>
+      <c r="AI27">
+        <v>3.402896875774994e-06</v>
+      </c>
+      <c r="AJ27">
+        <v>4.857072436468094e-07</v>
+      </c>
+      <c r="AK27">
+        <v>0.1033016554867618</v>
+      </c>
+      <c r="AL27">
+        <v>4.214789507554035e-09</v>
+      </c>
+      <c r="AM27">
+        <v>9.829758022902773e-05</v>
+      </c>
+      <c r="AN27">
+        <v>1.236846594190752e-08</v>
+      </c>
+      <c r="AO27">
+        <v>1.937114188600187e-08</v>
+      </c>
+      <c r="AP27">
+        <v>2.533711493859303e-08</v>
+      </c>
+      <c r="AQ27">
+        <v>2.220303575036147e-08</v>
+      </c>
+      <c r="AR27">
+        <v>5.400723710109806e-06</v>
+      </c>
+      <c r="AT27">
+        <v>1.217854779615067e-07</v>
+      </c>
+      <c r="AU27">
+        <v>1.198870761100858e-07</v>
+      </c>
+    </row>
+    <row r="28" spans="1:47">
+      <c r="A28" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B28">
+        <v>-0.4648182629457885</v>
+      </c>
+      <c r="E28">
+        <v>-0.9895003570065288</v>
+      </c>
+      <c r="F28">
+        <v>-0.9895311746260101</v>
+      </c>
+      <c r="G28">
+        <v>-0.9887442277532673</v>
+      </c>
+      <c r="H28">
+        <v>-0.9883195623998531</v>
+      </c>
+      <c r="I28">
+        <v>0.9914071080684789</v>
+      </c>
+      <c r="J28">
+        <v>-0.736405392545726</v>
+      </c>
+      <c r="K28">
+        <v>0.9795844415287779</v>
+      </c>
+      <c r="L28">
+        <v>-0.7296711802370264</v>
+      </c>
+      <c r="S28">
+        <v>0.9912513938912727</v>
+      </c>
+      <c r="T28">
+        <v>0.1716154476711538</v>
+      </c>
+      <c r="U28">
+        <v>-0.9894457096980186</v>
+      </c>
+      <c r="W28">
+        <v>0.9692882419960456</v>
+      </c>
+      <c r="X28">
+        <v>0.9273711918995607</v>
+      </c>
+      <c r="Y28">
+        <v>0.8992508026167269</v>
+      </c>
+      <c r="AB28">
+        <v>-0.9932462110554651</v>
+      </c>
+      <c r="AD28">
+        <v>0.9909433930598709</v>
+      </c>
+      <c r="AE28">
+        <v>-0.9889888902595849</v>
+      </c>
+      <c r="AF28">
+        <v>-0.9920625818232253</v>
+      </c>
+      <c r="AG28">
+        <v>-0.9687048770982416</v>
+      </c>
+      <c r="AH28">
+        <v>-0.966207468548443</v>
+      </c>
+      <c r="AI28">
+        <v>0.9634882405223517</v>
+      </c>
+      <c r="AJ28">
+        <v>0.9782543031413741</v>
+      </c>
+      <c r="AK28">
+        <v>0.3591183807165311</v>
+      </c>
+      <c r="AL28">
+        <v>-0.9893696785237154</v>
+      </c>
+      <c r="AM28">
+        <v>0.9277870152678078</v>
+      </c>
+      <c r="AN28">
+        <v>-0.9661174788863761</v>
+      </c>
+      <c r="AO28">
+        <v>0.9887186246941353</v>
+      </c>
+      <c r="AP28">
+        <v>0.9884372871997712</v>
+      </c>
+      <c r="AQ28">
+        <v>0.9885837090179569</v>
+      </c>
+      <c r="AR28">
+        <v>0.9631913066429044</v>
+      </c>
+      <c r="AT28">
+        <v>0.9863872374929147</v>
+      </c>
+      <c r="AU28">
+        <v>0.986413534438763</v>
+      </c>
+    </row>
+    <row r="29" spans="1:47">
+      <c r="A29" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B29">
+        <v>0.0940062949053089</v>
+      </c>
+      <c r="E29">
+        <v>1.891244587840045e-11</v>
+      </c>
+      <c r="F29">
+        <v>1.858305168859015e-11</v>
+      </c>
+      <c r="G29">
+        <v>2.865798087425944e-11</v>
+      </c>
+      <c r="H29">
+        <v>3.575621129878947e-11</v>
+      </c>
+      <c r="I29">
+        <v>5.705815978021873e-12</v>
+      </c>
+      <c r="J29">
+        <v>0.002668735444622456</v>
+      </c>
+      <c r="K29">
+        <v>1.000423046277908e-09</v>
+      </c>
+      <c r="L29">
+        <v>0.003055291793276901</v>
+      </c>
+      <c r="S29">
+        <v>6.352862202452474e-12</v>
+      </c>
+      <c r="T29">
+        <v>0.5574464433366485</v>
+      </c>
+      <c r="U29">
+        <v>1.950848969812593e-11</v>
+      </c>
+      <c r="W29">
+        <v>1.133874834404488e-08</v>
+      </c>
+      <c r="X29">
+        <v>1.809566408340886e-06</v>
+      </c>
+      <c r="Y29">
+        <v>1.211386090520006e-05</v>
+      </c>
+      <c r="AB29">
+        <v>1.350464802705844e-12</v>
+      </c>
+      <c r="AD29">
+        <v>7.813430092403161e-12</v>
+      </c>
+      <c r="AE29">
+        <v>2.513095795085984e-11</v>
+      </c>
+      <c r="AF29">
+        <v>3.549516669343003e-12</v>
+      </c>
+      <c r="AG29">
+        <v>1.267790352857036e-08</v>
+      </c>
+      <c r="AH29">
+        <v>1.998746066804337e-08</v>
+      </c>
+      <c r="AI29">
+        <v>3.161286573087422e-08</v>
+      </c>
+      <c r="AJ29">
+        <v>1.456826671224631e-09</v>
+      </c>
+      <c r="AK29">
+        <v>0.2073061540164453</v>
+      </c>
+      <c r="AL29">
+        <v>2.036370389707647e-11</v>
+      </c>
+      <c r="AM29">
+        <v>1.749891258607993e-06</v>
+      </c>
+      <c r="AN29">
+        <v>2.030498600494629e-08</v>
+      </c>
+      <c r="AO29">
+        <v>2.904973395039568e-11</v>
+      </c>
+      <c r="AP29">
+        <v>3.365621746642274e-11</v>
+      </c>
+      <c r="AQ29">
+        <v>3.118846021046248e-11</v>
+      </c>
+      <c r="AR29">
+        <v>3.316571285360828e-08</v>
+      </c>
+      <c r="AT29">
+        <v>8.922101612227386e-11</v>
+      </c>
+      <c r="AU29">
+        <v>8.819685854842118e-11</v>
+      </c>
+    </row>
+    <row r="30" spans="1:47">
+      <c r="A30" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B30">
+        <v>-0.4407715839769064</v>
+      </c>
+      <c r="E30">
+        <v>-0.9834076815598175</v>
+      </c>
+      <c r="F30">
+        <v>-0.9834561118700624</v>
+      </c>
+      <c r="G30">
+        <v>-0.9877611651739465</v>
+      </c>
+      <c r="H30">
+        <v>-0.9875021885024515</v>
+      </c>
+      <c r="I30">
+        <v>0.9932461353426559</v>
+      </c>
+      <c r="J30">
+        <v>-0.7049288048937057</v>
+      </c>
+      <c r="K30">
+        <v>0.969081992948933</v>
+      </c>
+      <c r="L30">
+        <v>-0.7134877899151055</v>
+      </c>
+      <c r="P30">
+        <v>0.9986885473085493</v>
+      </c>
+      <c r="R30">
+        <v>0.9852107626119867</v>
+      </c>
+      <c r="S30">
+        <v>0.9866001075533158</v>
+      </c>
+      <c r="T30">
+        <v>0.1213822530670636</v>
+      </c>
+      <c r="U30">
+        <v>-0.9884872959748129</v>
+      </c>
+      <c r="W30">
+        <v>0.9559930605980941</v>
+      </c>
+      <c r="X30">
+        <v>0.9387515125381064</v>
+      </c>
+      <c r="Y30">
+        <v>0.913465417453255</v>
+      </c>
+      <c r="AB30">
+        <v>-0.9936268949648149</v>
+      </c>
+      <c r="AD30">
+        <v>0.9883593479389009</v>
+      </c>
+      <c r="AE30">
+        <v>-0.9920406451508741</v>
+      </c>
+      <c r="AF30">
+        <v>-0.9942341596244126</v>
+      </c>
+      <c r="AG30">
+        <v>-0.9762517895166868</v>
+      </c>
+      <c r="AH30">
+        <v>-0.9727605853400112</v>
+      </c>
+      <c r="AI30">
+        <v>0.9532469115440322</v>
+      </c>
+      <c r="AJ30">
+        <v>0.9704586846956641</v>
+      </c>
+      <c r="AK30">
+        <v>0.3818305477105823</v>
+      </c>
+      <c r="AL30">
+        <v>-0.9881972789997745</v>
+      </c>
+      <c r="AM30">
+        <v>0.9076970576299934</v>
+      </c>
+      <c r="AN30">
+        <v>-0.9707494045723777</v>
+      </c>
+      <c r="AO30">
+        <v>0.9853120991738753</v>
+      </c>
+      <c r="AP30">
+        <v>0.9846263044794059</v>
+      </c>
+      <c r="AQ30">
+        <v>0.9849719498745605</v>
+      </c>
+      <c r="AR30">
+        <v>0.9503167672766615</v>
+      </c>
+      <c r="AT30">
+        <v>0.9797346040486792</v>
+      </c>
+      <c r="AU30">
+        <v>0.9797938543422801</v>
+      </c>
+    </row>
+    <row r="31" spans="1:47">
+      <c r="A31" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B31">
+        <v>0.1146820035323566</v>
+      </c>
+      <c r="E31">
+        <v>2.906983717846699e-10</v>
+      </c>
+      <c r="F31">
+        <v>2.856742057835683e-10</v>
+      </c>
+      <c r="G31">
+        <v>4.726233145778915e-11</v>
+      </c>
+      <c r="H31">
+        <v>5.355947755220076e-11</v>
+      </c>
+      <c r="I31">
+        <v>1.350555421216429e-12</v>
+      </c>
+      <c r="J31">
+        <v>0.004868708000413433</v>
+      </c>
+      <c r="K31">
+        <v>1.179809029334664e-08</v>
+      </c>
+      <c r="L31">
+        <v>0.004165652261586911</v>
+      </c>
+      <c r="P31">
+        <v>7.32465167487757e-17</v>
+      </c>
+      <c r="R31">
+        <v>1.463400627755903e-10</v>
+      </c>
+      <c r="S31">
+        <v>8.120758462577204e-11</v>
+      </c>
+      <c r="T31">
+        <v>0.6793420564465463</v>
+      </c>
+      <c r="U31">
+        <v>3.279575728065919e-11</v>
+      </c>
+      <c r="W31">
+        <v>9.534703446971753e-08</v>
+      </c>
+      <c r="X31">
+        <v>6.673736868626748e-07</v>
+      </c>
+      <c r="Y31">
+        <v>5.019983801056461e-06</v>
+      </c>
+      <c r="AB31">
+        <v>9.542452554270748e-13</v>
+      </c>
+      <c r="AD31">
+        <v>3.503465614236218e-11</v>
+      </c>
+      <c r="AE31">
+        <v>3.60861355155741e-12</v>
+      </c>
+      <c r="AF31">
+        <v>5.239571027369928e-13</v>
+      </c>
+      <c r="AG31">
+        <v>2.460780399057251e-09</v>
+      </c>
+      <c r="AH31">
+        <v>5.561504590332583e-09</v>
+      </c>
+      <c r="AI31">
+        <v>1.362825042403141e-07</v>
+      </c>
+      <c r="AJ31">
+        <v>9.003643637620933e-09</v>
+      </c>
+      <c r="AK31">
+        <v>0.1779159347224374</v>
+      </c>
+      <c r="AL31">
+        <v>3.805181110691232e-11</v>
+      </c>
+      <c r="AM31">
+        <v>7.299526993354614e-06</v>
+      </c>
+      <c r="AN31">
+        <v>8.49026614410836e-09</v>
+      </c>
+      <c r="AO31">
+        <v>1.404564868232226e-10</v>
+      </c>
+      <c r="AP31">
+        <v>1.844212901371693e-10</v>
+      </c>
+      <c r="AQ31">
+        <v>1.610203668418177e-10</v>
+      </c>
+      <c r="AR31">
+        <v>1.950104824225246e-07</v>
+      </c>
+      <c r="AT31">
+        <v>9.573870122772951e-10</v>
+      </c>
+      <c r="AU31">
+        <v>9.408349190305207e-10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:47">
+      <c r="A32" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B32">
+        <v>-0.4501534579799174</v>
+      </c>
+      <c r="E32">
+        <v>-0.9880354167133331</v>
+      </c>
+      <c r="F32">
+        <v>-0.9880803484735778</v>
+      </c>
+      <c r="G32">
+        <v>-0.9906528232397592</v>
+      </c>
+      <c r="H32">
+        <v>-0.9903614208513196</v>
+      </c>
+      <c r="I32">
+        <v>0.9880464470449531</v>
+      </c>
+      <c r="J32">
+        <v>-0.7395330388309939</v>
+      </c>
+      <c r="K32">
+        <v>0.9892859004231552</v>
+      </c>
+      <c r="L32">
+        <v>-0.7325574525705703</v>
+      </c>
+      <c r="P32">
+        <v>0.9895649871310838</v>
+      </c>
+      <c r="S32">
+        <v>0.9971237851557209</v>
+      </c>
+      <c r="T32">
+        <v>0.2297702588091083</v>
+      </c>
+      <c r="U32">
+        <v>-0.9966924641549941</v>
+      </c>
+      <c r="W32">
+        <v>0.9815548787974676</v>
+      </c>
+      <c r="X32">
+        <v>0.9285699975552401</v>
+      </c>
+      <c r="Y32">
+        <v>0.9050384858450983</v>
+      </c>
+      <c r="AB32">
+        <v>-0.9852945857132198</v>
+      </c>
+      <c r="AD32">
+        <v>0.9991520022030769</v>
+      </c>
+      <c r="AE32">
+        <v>-0.9857531960648745</v>
+      </c>
+      <c r="AF32">
+        <v>-0.9870911974805751</v>
+      </c>
+      <c r="AG32">
+        <v>-0.95862996472443</v>
+      </c>
+      <c r="AH32">
+        <v>-0.9578610995557734</v>
+      </c>
+      <c r="AI32">
+        <v>0.9870292620186691</v>
+      </c>
+      <c r="AJ32">
+        <v>0.9957469913630613</v>
+      </c>
+      <c r="AK32">
+        <v>0.3171693221932397</v>
+      </c>
+      <c r="AL32">
+        <v>-0.9969663720794614</v>
+      </c>
+      <c r="AM32">
+        <v>0.938941578769102</v>
+      </c>
+      <c r="AN32">
+        <v>-0.9775536607116337</v>
+      </c>
+      <c r="AO32">
+        <v>0.9987875713745274</v>
+      </c>
+      <c r="AP32">
+        <v>0.9989136956777345</v>
+      </c>
+      <c r="AQ32">
+        <v>0.9988597721057428</v>
+      </c>
+      <c r="AR32">
+        <v>0.9850812767050779</v>
+      </c>
+      <c r="AT32">
+        <v>0.9982209311637762</v>
+      </c>
+      <c r="AU32">
+        <v>0.9982556467136585</v>
+      </c>
+    </row>
+    <row r="33" spans="1:47">
+      <c r="A33" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B33">
+        <v>0.1062779067866713</v>
+      </c>
+      <c r="E33">
+        <v>4.127780627730192e-11</v>
+      </c>
+      <c r="F33">
+        <v>4.036031159604389e-11</v>
+      </c>
+      <c r="G33">
+        <v>9.437564923580339e-12</v>
+      </c>
+      <c r="H33">
+        <v>1.133921851174581e-11</v>
+      </c>
+      <c r="I33">
+        <v>4.105097891118142e-11</v>
+      </c>
+      <c r="J33">
+        <v>0.002502885175334256</v>
+      </c>
+      <c r="K33">
+        <v>2.13419529790212e-11</v>
+      </c>
+      <c r="L33">
+        <v>0.002884556137761262</v>
+      </c>
+      <c r="P33">
+        <v>1.822715270109226e-11</v>
+      </c>
+      <c r="S33">
+        <v>8.123472776615369e-15</v>
+      </c>
+      <c r="T33">
+        <v>0.4293952629100822</v>
+      </c>
+      <c r="U33">
+        <v>1.87689188851736e-14</v>
+      </c>
+      <c r="W33">
+        <v>5.464532592696265e-10</v>
+      </c>
+      <c r="X33">
+        <v>1.641923863935534e-06</v>
+      </c>
+      <c r="Y33">
+        <v>8.604370650204935e-06</v>
+      </c>
+      <c r="AB33">
+        <v>1.41459006690823e-10</v>
+      </c>
+      <c r="AD33">
+        <v>5.358843036774266e-18</v>
+      </c>
+      <c r="AE33">
+        <v>1.170849139357436e-10</v>
+      </c>
+      <c r="AF33">
+        <v>6.497762834993865e-11</v>
+      </c>
+      <c r="AG33">
+        <v>6.618983346540695e-08</v>
+      </c>
+      <c r="AH33">
+        <v>7.379852819543354e-08</v>
+      </c>
+      <c r="AI33">
+        <v>6.686183611706603e-11</v>
+      </c>
+      <c r="AJ33">
+        <v>8.466585407428897e-14</v>
+      </c>
+      <c r="AK33">
+        <v>0.269187429040654</v>
+      </c>
+      <c r="AL33">
+        <v>1.117997937049856e-14</v>
+      </c>
+      <c r="AM33">
+        <v>6.553171213242058e-07</v>
+      </c>
+      <c r="AN33">
+        <v>1.75947582266912e-09</v>
+      </c>
+      <c r="AO33">
+        <v>4.574045641783343e-17</v>
+      </c>
+      <c r="AP33">
+        <v>2.3669543291117e-17</v>
+      </c>
+      <c r="AQ33">
+        <v>3.165050149325169e-17</v>
+      </c>
+      <c r="AR33">
+        <v>1.541548880245827e-10</v>
+      </c>
+      <c r="AT33">
+        <v>4.560288045503485e-16</v>
+      </c>
+      <c r="AU33">
+        <v>4.052049836812405e-16</v>
+      </c>
+    </row>
+    <row r="34" spans="1:47">
+      <c r="A34" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E34">
+        <v>-0.9877404106229735</v>
+      </c>
+      <c r="F34">
+        <v>-0.987786756813462</v>
+      </c>
+      <c r="G34">
+        <v>-0.989516805362289</v>
+      </c>
+      <c r="H34">
+        <v>-0.9892438879062263</v>
+      </c>
+      <c r="I34">
+        <v>0.9848788532834906</v>
+      </c>
+      <c r="J34">
+        <v>-0.742539672036385</v>
+      </c>
+      <c r="K34">
+        <v>0.9887101582442623</v>
+      </c>
+      <c r="L34">
+        <v>-0.7430057445416232</v>
+      </c>
+      <c r="U34">
+        <v>-0.9946593064081878</v>
+      </c>
+      <c r="W34">
+        <v>0.9820719305972488</v>
+      </c>
+      <c r="AB34">
+        <v>-0.9833535398343553</v>
+      </c>
+      <c r="AD34">
+        <v>0.9957285906244682</v>
+      </c>
+      <c r="AH34">
+        <v>-0.9513224345162198</v>
+      </c>
+      <c r="AK34">
+        <v>0.3079572019395119</v>
+      </c>
+      <c r="AL34">
+        <v>-0.9948431695387321</v>
+      </c>
+    </row>
+    <row r="35" spans="1:47">
+      <c r="A35" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E35">
+        <v>4.774312439491205e-11</v>
+      </c>
+      <c r="F35">
+        <v>4.667503577051133e-11</v>
+      </c>
+      <c r="G35">
+        <v>1.873603846055873e-11</v>
+      </c>
+      <c r="H35">
+        <v>2.184704694740085e-11</v>
+      </c>
+      <c r="I35">
+        <v>1.670652831911399e-10</v>
+      </c>
+      <c r="J35">
+        <v>0.002351236495655936</v>
+      </c>
+      <c r="K35">
+        <v>2.918025537410167e-11</v>
+      </c>
+      <c r="L35">
+        <v>0.002328394370551444</v>
+      </c>
+      <c r="U35">
+        <v>3.312093091188276e-13</v>
+      </c>
+      <c r="W35">
+        <v>4.612641829266852e-10</v>
+      </c>
+      <c r="AB35">
+        <v>2.964017837780952e-10</v>
+      </c>
+      <c r="AD35">
+        <v>8.688418509375052e-14</v>
+      </c>
+      <c r="AH35">
+        <v>1.728726427231537e-07</v>
+      </c>
+      <c r="AK35">
+        <v>0.2841021626975325</v>
+      </c>
+      <c r="AL35">
+        <v>2.685252595901232e-13</v>
+      </c>
+    </row>
+    <row r="36" spans="1:47">
+      <c r="A36" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E36">
+        <v>-0.2562742152298442</v>
+      </c>
+      <c r="F36">
+        <v>-0.2559511343217057</v>
+      </c>
+      <c r="G36">
+        <v>-0.1540928950323989</v>
+      </c>
+      <c r="H36">
+        <v>-0.1509803227598501</v>
+      </c>
+      <c r="I36">
+        <v>0.1023679835738874</v>
+      </c>
+      <c r="J36">
+        <v>-0.6892878017012651</v>
+      </c>
+      <c r="K36">
+        <v>0.3392745103327156</v>
+      </c>
+      <c r="L36">
+        <v>-0.3593707383383608</v>
+      </c>
+      <c r="S36">
+        <v>0.2366088311638945</v>
+      </c>
+      <c r="U36">
+        <v>-0.1611933230367213</v>
+      </c>
+      <c r="W36">
+        <v>0.3937830810310327</v>
+      </c>
+      <c r="AB36">
+        <v>-0.1272631995195414</v>
+      </c>
+      <c r="AD36">
+        <v>0.1947684024336947</v>
+      </c>
+      <c r="AK36">
+        <v>-0.4108065703173991</v>
+      </c>
+      <c r="AL36">
+        <v>-0.1651830133089422</v>
+      </c>
+    </row>
+    <row r="37" spans="1:47">
+      <c r="A37" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E37">
+        <v>0.3764841590136047</v>
+      </c>
+      <c r="F37">
+        <v>0.3771071522616382</v>
+      </c>
+      <c r="G37">
+        <v>0.5989110807810075</v>
+      </c>
+      <c r="H37">
+        <v>0.606401215672028</v>
+      </c>
+      <c r="I37">
+        <v>0.7276661400456371</v>
+      </c>
+      <c r="J37">
+        <v>0.006390331845058294</v>
+      </c>
+      <c r="K37">
+        <v>0.235344615160128</v>
+      </c>
+      <c r="L37">
+        <v>0.2069638127709051</v>
+      </c>
+      <c r="S37">
+        <v>0.4153979980065684</v>
+      </c>
+      <c r="U37">
+        <v>0.5819628461002835</v>
+      </c>
+      <c r="W37">
+        <v>0.1635922937526199</v>
+      </c>
+      <c r="AB37">
+        <v>0.6646151924577568</v>
+      </c>
+      <c r="AD37">
+        <v>0.5046136825204244</v>
+      </c>
+      <c r="AK37">
+        <v>0.1445285733231723</v>
+      </c>
+      <c r="AL37">
+        <v>0.5725261693225091</v>
+      </c>
+    </row>
+    <row r="38" spans="1:47">
+      <c r="A38" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="L38">
+        <v>0.7270162768942576</v>
+      </c>
+    </row>
+    <row r="39" spans="1:47">
+      <c r="A39" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="L39">
+        <v>0.003219280178522442</v>
+      </c>
+    </row>
+    <row r="40" spans="1:47">
+      <c r="A40" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B40">
+        <v>-0.5542468704936593</v>
+      </c>
+      <c r="C40">
+        <v>-0.9058557458002451</v>
+      </c>
+      <c r="D40">
+        <v>-0.9058556773863119</v>
+      </c>
+      <c r="E40">
+        <v>-0.9827254601345634</v>
+      </c>
+      <c r="F40">
+        <v>-0.9826829964247427</v>
+      </c>
+      <c r="G40">
+        <v>-0.9635981399261353</v>
+      </c>
+      <c r="H40">
+        <v>-0.9624960760874365</v>
+      </c>
+      <c r="I40">
+        <v>0.9517545610937971</v>
+      </c>
+      <c r="J40">
+        <v>-0.8532326614967392</v>
+      </c>
+      <c r="K40">
+        <v>0.9973180862998449</v>
+      </c>
+      <c r="L40">
+        <v>-0.7897208948628808</v>
+      </c>
+      <c r="M40">
+        <v>0.9380077310181885</v>
+      </c>
+      <c r="N40">
+        <v>-0.6215948105587182</v>
+      </c>
+      <c r="O40">
+        <v>0.9147943123449781</v>
+      </c>
+      <c r="P40">
+        <v>0.9682870707373443</v>
+      </c>
+      <c r="Q40">
+        <v>0.9546289051426436</v>
+      </c>
+      <c r="R40">
+        <v>0.9795531394237763</v>
+      </c>
+      <c r="S40">
+        <v>0.9803721153374029</v>
+      </c>
+      <c r="T40">
+        <v>0.4009830394281313</v>
+      </c>
+      <c r="U40">
+        <v>-0.9642984096391348</v>
+      </c>
+      <c r="V40">
+        <v>0.9986668417067581</v>
+      </c>
+      <c r="W40">
+        <v>0.9998818174763984</v>
+      </c>
+      <c r="X40">
+        <v>0.8534061011619418</v>
+      </c>
+      <c r="Y40">
+        <v>0.8149277228292023</v>
+      </c>
+      <c r="Z40">
+        <v>-0.9513870276394506</v>
+      </c>
+      <c r="AA40">
+        <v>-0.9648868196571432</v>
+      </c>
+      <c r="AB40">
+        <v>-0.9584198473266425</v>
+      </c>
+      <c r="AC40">
+        <v>-0.9078745032606343</v>
+      </c>
+      <c r="AD40">
+        <v>0.9729049189540006</v>
+      </c>
+      <c r="AE40">
+        <v>-0.9437812298227618</v>
+      </c>
+      <c r="AF40">
+        <v>-0.9496918248178019</v>
+      </c>
+      <c r="AG40">
+        <v>-0.904896067815616</v>
+      </c>
+      <c r="AH40">
+        <v>-0.9083910057036039</v>
+      </c>
+      <c r="AI40">
+        <v>0.983117654977355</v>
+      </c>
+      <c r="AJ40">
+        <v>0.9858510583629148</v>
+      </c>
+      <c r="AK40">
+        <v>0.2465155445296234</v>
+      </c>
+      <c r="AL40">
+        <v>-0.9653019027244421</v>
+      </c>
+      <c r="AM40">
+        <v>0.9885297049374805</v>
+      </c>
+      <c r="AN40">
+        <v>-0.9190154480006377</v>
+      </c>
+      <c r="AO40">
+        <v>0.9751697560991159</v>
+      </c>
+      <c r="AP40">
+        <v>0.9767400040214509</v>
+      </c>
+      <c r="AQ40">
+        <v>0.9759742367476059</v>
+      </c>
+      <c r="AR40">
+        <v>0.9954308188602341</v>
+      </c>
+      <c r="AS40">
+        <v>-0.8646731798805782</v>
+      </c>
+      <c r="AT40">
+        <v>0.9875305891830189</v>
+      </c>
+      <c r="AU40">
+        <v>0.9874033850452238</v>
+      </c>
+    </row>
+    <row r="41" spans="1:47">
+      <c r="A41" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B41">
+        <v>0.03971457087554275</v>
+      </c>
+      <c r="C41">
+        <v>8.184383849696906e-06</v>
+      </c>
+      <c r="D41">
+        <v>8.184418289273564e-06</v>
+      </c>
+      <c r="E41">
+        <v>3.696578545958312e-10</v>
+      </c>
+      <c r="F41">
+        <v>3.751091877383094e-10</v>
+      </c>
+      <c r="G41">
+        <v>3.105363974182757e-08</v>
+      </c>
+      <c r="H41">
+        <v>3.705020503479213e-08</v>
+      </c>
+      <c r="I41">
+        <v>1.640214615646739e-07</v>
+      </c>
+      <c r="J41">
+        <v>0.0001043782789694545</v>
+      </c>
+      <c r="K41">
+        <v>5.341504546282893e-15</v>
+      </c>
+      <c r="L41">
+        <v>0.0007799981673739513</v>
+      </c>
+      <c r="M41">
+        <v>7.16329381495176e-07</v>
+      </c>
+      <c r="N41">
+        <v>0.0176403864581731</v>
+      </c>
+      <c r="O41">
+        <v>4.588336775509454e-06</v>
+      </c>
+      <c r="P41">
+        <v>1.371550930852311e-08</v>
+      </c>
+      <c r="Q41">
+        <v>1.141730489747701e-07</v>
+      </c>
+      <c r="R41">
+        <v>1.009593504137951e-09</v>
+      </c>
+      <c r="S41">
+        <v>7.913997757687856e-10</v>
+      </c>
+      <c r="T41">
+        <v>0.1553392741291846</v>
+      </c>
+      <c r="U41">
+        <v>2.767945069624856e-08</v>
+      </c>
+      <c r="V41">
+        <v>8.08241797243031e-17</v>
+      </c>
+      <c r="W41">
+        <v>3.932797334536347e-23</v>
+      </c>
+      <c r="X41">
+        <v>0.0001036812399221071</v>
+      </c>
+      <c r="Y41">
+        <v>0.0003843912458900476</v>
+      </c>
+      <c r="Z41">
+        <v>1.715250324166095e-07</v>
+      </c>
+      <c r="AA41">
+        <v>2.508467023141653e-08</v>
+      </c>
+      <c r="AB41">
+        <v>6.820145590319695e-08</v>
+      </c>
+      <c r="AC41">
+        <v>7.218580642908624e-06</v>
+      </c>
+      <c r="AD41">
+        <v>5.388702022441354e-09</v>
+      </c>
+      <c r="AE41">
+        <v>4.035300852985508e-07</v>
+      </c>
+      <c r="AF41">
+        <v>2.099118984074429e-07</v>
+      </c>
+      <c r="AG41">
+        <v>8.679336319962722e-06</v>
+      </c>
+      <c r="AH41">
+        <v>6.987149315324633e-06</v>
+      </c>
+      <c r="AI41">
+        <v>3.223480830523258e-10</v>
+      </c>
+      <c r="AJ41">
+        <v>1.123651331552447e-10</v>
+      </c>
+      <c r="AK41">
+        <v>0.3955436500789558</v>
+      </c>
+      <c r="AL41">
+        <v>2.337830416806325e-08</v>
+      </c>
+      <c r="AM41">
+        <v>3.208047649820504e-11</v>
+      </c>
+      <c r="AN41">
+        <v>3.414421481399699e-06</v>
+      </c>
+      <c r="AO41">
+        <v>3.207426940973153e-09</v>
+      </c>
+      <c r="AP41">
+        <v>2.174722813726899e-09</v>
+      </c>
+      <c r="AQ41">
+        <v>2.636877403662695e-09</v>
+      </c>
+      <c r="AR41">
+        <v>1.30096678281184e-13</v>
+      </c>
+      <c r="AS41">
+        <v>6.582684037090407e-05</v>
+      </c>
+      <c r="AT41">
+        <v>5.283657690058269e-11</v>
+      </c>
+      <c r="AU41">
+        <v>5.613881398724821e-11</v>
+      </c>
+    </row>
+    <row r="42" spans="1:47">
+      <c r="A42" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B42">
+        <v>-0.5388883983992029</v>
+      </c>
+      <c r="C42">
+        <v>-0.9240355455292359</v>
+      </c>
+      <c r="D42">
+        <v>-0.9240354812390489</v>
+      </c>
+      <c r="E42">
+        <v>-0.9869859331948232</v>
+      </c>
+      <c r="F42">
+        <v>-0.9869629996115297</v>
+      </c>
+      <c r="G42">
+        <v>-0.9744470668493422</v>
+      </c>
+      <c r="H42">
+        <v>-0.9735164778332389</v>
+      </c>
+      <c r="I42">
+        <v>0.963668593339306</v>
+      </c>
+      <c r="J42">
+        <v>-0.8328978790580214</v>
+      </c>
+      <c r="K42">
+        <v>0.9992566355749735</v>
+      </c>
+      <c r="L42">
+        <v>-0.7929389332819532</v>
+      </c>
+      <c r="M42">
+        <v>0.9477339342506406</v>
+      </c>
+      <c r="N42">
+        <v>-0.6270839139958529</v>
+      </c>
+      <c r="O42">
+        <v>0.9268275467703992</v>
+      </c>
+      <c r="P42">
+        <v>0.9746297314895895</v>
+      </c>
+      <c r="Q42">
+        <v>0.9629106363770312</v>
+      </c>
+      <c r="R42">
+        <v>0.9869463271068704</v>
+      </c>
+      <c r="S42">
+        <v>0.986854991127639</v>
+      </c>
+      <c r="T42">
+        <v>0.3632526107471228</v>
+      </c>
+      <c r="U42">
+        <v>-0.9749987866589669</v>
+      </c>
+      <c r="W42">
+        <v>0.9992746836034299</v>
+      </c>
+      <c r="X42">
+        <v>0.8768481691628002</v>
+      </c>
+      <c r="Y42">
+        <v>0.8414941728684137</v>
+      </c>
+      <c r="Z42">
+        <v>-0.9628582081669664</v>
+      </c>
+      <c r="AA42">
+        <v>-0.973228377926635</v>
+      </c>
+      <c r="AB42">
+        <v>-0.9683408089148796</v>
+      </c>
+      <c r="AC42">
+        <v>-0.9233034834885991</v>
+      </c>
+      <c r="AD42">
+        <v>0.9817083543809496</v>
+      </c>
+      <c r="AE42">
+        <v>-0.9568157758697988</v>
+      </c>
+      <c r="AF42">
+        <v>-0.9613948046066829</v>
+      </c>
+      <c r="AG42">
+        <v>-0.9217163958077709</v>
+      </c>
+      <c r="AH42">
+        <v>-0.9250115775513855</v>
+      </c>
+      <c r="AI42">
+        <v>0.986875558635337</v>
+      </c>
+      <c r="AJ42">
+        <v>0.9914264361998364</v>
+      </c>
+      <c r="AK42">
+        <v>0.2662609762612147</v>
+      </c>
+      <c r="AL42">
+        <v>-0.9758715746477856</v>
+      </c>
+      <c r="AM42">
+        <v>0.980633942866156</v>
+      </c>
+      <c r="AN42">
+        <v>-0.9356910519451318</v>
+      </c>
+      <c r="AO42">
+        <v>0.9840304430318869</v>
+      </c>
+      <c r="AP42">
+        <v>0.9852679939914961</v>
+      </c>
+      <c r="AQ42">
+        <v>0.9846662399706082</v>
+      </c>
+      <c r="AR42">
+        <v>0.9968209941376674</v>
+      </c>
+      <c r="AS42">
+        <v>-0.8861053403655963</v>
+      </c>
+      <c r="AT42">
+        <v>0.993500989925124</v>
+      </c>
+      <c r="AU42">
+        <v>0.9934014641291592</v>
+      </c>
+    </row>
+    <row r="43" spans="1:47">
+      <c r="A43" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B43">
+        <v>0.04676791345450299</v>
+      </c>
+      <c r="C43">
+        <v>2.351724104910192e-06</v>
+      </c>
+      <c r="D43">
+        <v>2.351735712883847e-06</v>
+      </c>
+      <c r="E43">
+        <v>6.820682619872425e-11</v>
+      </c>
+      <c r="F43">
+        <v>6.892777651747561e-11</v>
+      </c>
+      <c r="G43">
+        <v>3.803961754742311e-09</v>
+      </c>
+      <c r="H43">
+        <v>4.705124113215922e-09</v>
+      </c>
+      <c r="I43">
+        <v>3.069946783501615e-08</v>
+      </c>
+      <c r="J43">
+        <v>0.0002170549942854863</v>
+      </c>
+      <c r="K43">
+        <v>2.43226414824674e-18</v>
+      </c>
+      <c r="L43">
+        <v>0.0007164174343701389</v>
+      </c>
+      <c r="M43">
+        <v>2.628240468274167e-07</v>
+      </c>
+      <c r="N43">
+        <v>0.01638321732381518</v>
+      </c>
+      <c r="O43">
+        <v>1.890104993465774e-06</v>
+      </c>
+      <c r="P43">
+        <v>3.645135523557368e-09</v>
+      </c>
+      <c r="Q43">
+        <v>3.469110878574165e-08</v>
+      </c>
+      <c r="R43">
+        <v>6.945587016244619e-11</v>
+      </c>
+      <c r="S43">
+        <v>7.240898579526782e-11</v>
+      </c>
+      <c r="T43">
+        <v>0.2017426420854157</v>
+      </c>
+      <c r="U43">
+        <v>3.341001693130879e-09</v>
+      </c>
+      <c r="W43">
+        <v>2.098852267008415e-18</v>
+      </c>
+      <c r="X43">
+        <v>3.843056463811602e-05</v>
+      </c>
+      <c r="Y43">
+        <v>0.0001612465718539933</v>
+      </c>
+      <c r="Z43">
+        <v>3.49823908579448e-08</v>
+      </c>
+      <c r="AA43">
+        <v>5.017574062336465e-09</v>
+      </c>
+      <c r="AB43">
+        <v>1.357823468649399e-08</v>
+      </c>
+      <c r="AC43">
+        <v>2.486997886777794e-06</v>
+      </c>
+      <c r="AD43">
+        <v>5.199055814488998e-10</v>
+      </c>
+      <c r="AE43">
+        <v>8.529231057172718e-08</v>
+      </c>
+      <c r="AF43">
+        <v>4.397081266365654e-08</v>
+      </c>
+      <c r="AG43">
+        <v>2.802355920763612e-06</v>
+      </c>
+      <c r="AH43">
+        <v>2.180846491716181e-06</v>
+      </c>
+      <c r="AI43">
+        <v>7.173504328680602e-11</v>
+      </c>
+      <c r="AJ43">
+        <v>5.629476538495451e-12</v>
+      </c>
+      <c r="AK43">
+        <v>0.357500415901677</v>
+      </c>
+      <c r="AL43">
+        <v>2.70460725778898e-09</v>
+      </c>
+      <c r="AM43">
+        <v>7.30546282734317e-10</v>
+      </c>
+      <c r="AN43">
+        <v>8.881889742328104e-07</v>
+      </c>
+      <c r="AO43">
+        <v>2.313879035087434e-10</v>
+      </c>
+      <c r="AP43">
+        <v>1.429925636064705e-10</v>
+      </c>
+      <c r="AQ43">
+        <v>1.815811521153324e-10</v>
+      </c>
+      <c r="AR43">
+        <v>1.480061084201069e-14</v>
+      </c>
+      <c r="AS43">
+        <v>2.455186450912437e-05</v>
+      </c>
+      <c r="AT43">
+        <v>1.072801434723306e-12</v>
+      </c>
+      <c r="AU43">
+        <v>1.174975241278704e-12</v>
+      </c>
+    </row>
+    <row r="44" spans="1:47">
+      <c r="A44" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I44">
+        <v>0.9543197719660237</v>
+      </c>
+      <c r="J44">
+        <v>-0.8482073416005137</v>
+      </c>
+      <c r="K44">
+        <v>0.9979733453226893</v>
+      </c>
+      <c r="L44">
+        <v>-0.7911680845700455</v>
+      </c>
+      <c r="U44">
+        <v>-0.9670065742415763</v>
+      </c>
+      <c r="AB44">
+        <v>-0.9602866685024037</v>
+      </c>
+      <c r="AD44">
+        <v>0.9751385395102906</v>
+      </c>
+      <c r="AL44">
+        <v>-0.9679950311878391</v>
+      </c>
+    </row>
+    <row r="45" spans="1:47">
+      <c r="A45" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="I45">
+        <v>1.188405647636977e-07</v>
+      </c>
+      <c r="J45">
+        <v>0.0001262911190749659</v>
+      </c>
+      <c r="K45">
+        <v>9.960558956466889e-16</v>
+      </c>
+      <c r="L45">
+        <v>0.000750868809534974</v>
+      </c>
+      <c r="U45">
+        <v>1.734408009311585e-08</v>
+      </c>
+      <c r="AB45">
+        <v>5.198290486000676e-08</v>
+      </c>
+      <c r="AD45">
+        <v>3.231479081302114e-09</v>
+      </c>
+      <c r="AL45">
+        <v>1.44818157060817e-08</v>
+      </c>
+    </row>
+    <row r="46" spans="1:47">
+      <c r="A46" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B46">
+        <v>-0.3464175024168528</v>
+      </c>
+      <c r="E46">
+        <v>-0.9032386798746512</v>
+      </c>
+      <c r="F46">
+        <v>-0.9034269865850479</v>
+      </c>
+      <c r="G46">
+        <v>-0.9582622080093144</v>
+      </c>
+      <c r="H46">
+        <v>-0.9593001705950095</v>
+      </c>
+      <c r="I46">
+        <v>0.9645395217198001</v>
+      </c>
+      <c r="J46">
+        <v>-0.5161027253352614</v>
+      </c>
+      <c r="K46">
+        <v>0.8866379146902904</v>
+      </c>
+      <c r="L46">
+        <v>-0.6750502124268601</v>
+      </c>
+      <c r="S46">
+        <v>0.9220589743833105</v>
+      </c>
+      <c r="T46">
+        <v>-0.1001555522830817</v>
+      </c>
+      <c r="U46">
+        <v>-0.9536842600432606</v>
+      </c>
+      <c r="W46">
+        <v>0.8590028276664652</v>
+      </c>
+      <c r="Y46">
+        <v>0.9953763260115281</v>
+      </c>
+      <c r="AB46">
+        <v>-0.9538681215632512</v>
+      </c>
+      <c r="AD46">
+        <v>0.9404199883903396</v>
+      </c>
+      <c r="AE46">
+        <v>-0.9667888677297528</v>
+      </c>
+      <c r="AF46">
+        <v>-0.9603556393226453</v>
+      </c>
+      <c r="AG46">
+        <v>-0.9764839009234852</v>
+      </c>
+      <c r="AH46">
+        <v>-0.973825305720853</v>
+      </c>
+      <c r="AI46">
+        <v>0.8847455577729848</v>
+      </c>
+      <c r="AJ46">
+        <v>0.9101551352605844</v>
+      </c>
+      <c r="AK46">
+        <v>0.5143928745166623</v>
+      </c>
+      <c r="AL46">
+        <v>-0.9530226929178476</v>
+      </c>
+      <c r="AM46">
+        <v>0.7711845347100534</v>
+      </c>
+      <c r="AN46">
+        <v>-0.9755987362177324</v>
+      </c>
+      <c r="AO46">
+        <v>0.9412467174155376</v>
+      </c>
+      <c r="AP46">
+        <v>0.9387687339103977</v>
+      </c>
+      <c r="AQ46">
+        <v>0.9399970419430247</v>
+      </c>
+      <c r="AR46">
+        <v>0.8692339914129905</v>
+      </c>
+      <c r="AT46">
+        <v>0.9195006718579141</v>
+      </c>
+      <c r="AU46">
+        <v>0.9197063113314161</v>
+      </c>
+    </row>
+    <row r="47" spans="1:47">
+      <c r="A47" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B47">
+        <v>0.2249969839617836</v>
+      </c>
+      <c r="E47">
+        <v>9.591883549490765e-06</v>
+      </c>
+      <c r="F47">
+        <v>9.484403238247686e-06</v>
+      </c>
+      <c r="G47">
+        <v>6.974367862765079e-08</v>
+      </c>
+      <c r="H47">
+        <v>6.009874252557415e-08</v>
+      </c>
+      <c r="I47">
+        <v>2.659054179750493e-08</v>
+      </c>
+      <c r="J47">
+        <v>0.05885594329332297</v>
+      </c>
+      <c r="K47">
+        <v>2.389955984164905e-05</v>
+      </c>
+      <c r="L47">
+        <v>0.008075596051798804</v>
+      </c>
+      <c r="S47">
+        <v>2.731643240891353e-06</v>
+      </c>
+      <c r="T47">
+        <v>0.7333544222753606</v>
+      </c>
+      <c r="U47">
+        <v>1.289331180275522e-07</v>
+      </c>
+      <c r="W47">
+        <v>8.313517821309865e-05</v>
+      </c>
+      <c r="Y47">
+        <v>1.39671687103508e-13</v>
+      </c>
+      <c r="AB47">
+        <v>1.259429731616603e-07</v>
+      </c>
+      <c r="AD47">
+        <v>5.675324876777991e-07</v>
+      </c>
+      <c r="AE47">
+        <v>1.803364960059116e-08</v>
+      </c>
+      <c r="AF47">
+        <v>5.145129748162645e-08</v>
+      </c>
+      <c r="AG47">
+        <v>2.321118116423944e-09</v>
+      </c>
+      <c r="AH47">
+        <v>4.388304290052656e-09</v>
+      </c>
+      <c r="AI47">
+        <v>2.628364884502164e-05</v>
+      </c>
+      <c r="AJ47">
+        <v>6.242132767185742e-06</v>
+      </c>
+      <c r="AK47">
+        <v>0.05984556703770091</v>
+      </c>
+      <c r="AL47">
+        <v>1.401826973609952e-07</v>
+      </c>
+      <c r="AM47">
+        <v>0.001239863149456268</v>
+      </c>
+      <c r="AN47">
+        <v>2.891664434382328e-09</v>
+      </c>
+      <c r="AO47">
+        <v>5.228386321668311e-07</v>
+      </c>
+      <c r="AP47">
+        <v>6.662737874139949e-07</v>
+      </c>
+      <c r="AQ47">
+        <v>5.915890798582345e-07</v>
+      </c>
+      <c r="AR47">
+        <v>5.414340869528601e-05</v>
+      </c>
+      <c r="AT47">
+        <v>3.297037211875836e-06</v>
+      </c>
+      <c r="AU47">
+        <v>3.248301706713693e-06</v>
+      </c>
+    </row>
+    <row r="48" spans="1:47">
+      <c r="A48" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B48">
+        <v>-0.2990714719671411</v>
+      </c>
+      <c r="E48">
+        <v>-0.8706373331832973</v>
+      </c>
+      <c r="F48">
+        <v>-0.8708597901167504</v>
+      </c>
+      <c r="G48">
+        <v>-0.933704801380975</v>
+      </c>
+      <c r="H48">
+        <v>-0.9350876673400765</v>
+      </c>
+      <c r="I48">
+        <v>0.9430622769872945</v>
+      </c>
+      <c r="J48">
+        <v>-0.4456897652991635</v>
+      </c>
+      <c r="K48">
+        <v>0.8521359703772934</v>
+      </c>
+      <c r="L48">
+        <v>-0.623687973475672</v>
+      </c>
+      <c r="S48">
+        <v>0.8961895596750288</v>
+      </c>
+      <c r="T48">
+        <v>-0.1572891483633193</v>
+      </c>
+      <c r="U48">
+        <v>-0.9341901314537303</v>
+      </c>
+      <c r="W48">
+        <v>0.8214556268127416</v>
+      </c>
+      <c r="AB48">
+        <v>-0.9279840231700218</v>
+      </c>
+      <c r="AD48">
+        <v>0.9186238869286294</v>
+      </c>
+      <c r="AE48">
+        <v>-0.9481781829373666</v>
+      </c>
+      <c r="AF48">
+        <v>-0.9396539590999766</v>
+      </c>
+      <c r="AG48">
+        <v>-0.9596455401823859</v>
+      </c>
+      <c r="AH48">
+        <v>-0.9551016872260364</v>
+      </c>
+      <c r="AI48">
+        <v>0.8600730439702199</v>
+      </c>
+      <c r="AJ48">
+        <v>0.8851301439893877</v>
+      </c>
+      <c r="AK48">
+        <v>0.5183862275480228</v>
+      </c>
+      <c r="AL48">
+        <v>-0.9333018736296889</v>
+      </c>
+      <c r="AM48">
+        <v>0.7227341836176545</v>
+      </c>
+      <c r="AN48">
+        <v>-0.9681328149559552</v>
+      </c>
+      <c r="AO48">
+        <v>0.9190183066499681</v>
+      </c>
+      <c r="AP48">
+        <v>0.9161275193081486</v>
+      </c>
+      <c r="AQ48">
+        <v>0.9175591728977024</v>
+      </c>
+      <c r="AR48">
+        <v>0.8374516183684233</v>
+      </c>
+      <c r="AT48">
+        <v>0.8927293716217427</v>
+      </c>
+      <c r="AU48">
+        <v>0.8930081554505769</v>
+      </c>
+    </row>
+    <row r="49" spans="1:47">
+      <c r="A49" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B49">
+        <v>0.2989383867788127</v>
+      </c>
+      <c r="E49">
+        <v>5.091033041195436e-05</v>
+      </c>
+      <c r="F49">
+        <v>5.041260005302716e-05</v>
+      </c>
+      <c r="G49">
+        <v>1.061383773048435e-06</v>
+      </c>
+      <c r="H49">
+        <v>9.38132411680016e-07</v>
+      </c>
+      <c r="I49">
+        <v>4.348146864083601e-07</v>
+      </c>
+      <c r="J49">
+        <v>0.1102217631272784</v>
+      </c>
+      <c r="K49">
+        <v>0.0001088744813523397</v>
+      </c>
+      <c r="L49">
+        <v>0.01715264954889509</v>
+      </c>
+      <c r="S49">
+        <v>1.439831839102318e-05</v>
+      </c>
+      <c r="T49">
+        <v>0.5912577818050619</v>
+      </c>
+      <c r="U49">
+        <v>1.01669286989282e-06</v>
+      </c>
+      <c r="W49">
+        <v>0.0003145859052547424</v>
+      </c>
+      <c r="AB49">
+        <v>1.722190097109323e-06</v>
+      </c>
+      <c r="AD49">
+        <v>3.511634685698967e-06</v>
+      </c>
+      <c r="AE49">
+        <v>2.499447923265731e-07</v>
+      </c>
+      <c r="AF49">
+        <v>6.117160724509412e-07</v>
+      </c>
+      <c r="AG49">
+        <v>5.714597956701408e-08</v>
+      </c>
+      <c r="AH49">
+        <v>1.073287513588056e-07</v>
+      </c>
+      <c r="AI49">
+        <v>7.961307207322224e-05</v>
+      </c>
+      <c r="AJ49">
+        <v>2.578403092128741e-05</v>
+      </c>
+      <c r="AK49">
+        <v>0.05755274271043919</v>
+      </c>
+      <c r="AL49">
+        <v>1.099706506854646e-06</v>
+      </c>
+      <c r="AM49">
+        <v>0.003498303959401856</v>
+      </c>
+      <c r="AN49">
+        <v>1.411596691682658e-08</v>
+      </c>
+      <c r="AO49">
+        <v>3.413719992634739e-06</v>
+      </c>
+      <c r="AP49">
+        <v>4.186430066150288e-06</v>
+      </c>
+      <c r="AQ49">
+        <v>3.787547383120677e-06</v>
+      </c>
+      <c r="AR49">
+        <v>0.0001858241527794521</v>
+      </c>
+      <c r="AT49">
+        <v>1.739369840905057e-05</v>
+      </c>
+      <c r="AU49">
+        <v>1.713490925619345e-05</v>
+      </c>
+    </row>
+    <row r="50" spans="1:47">
+      <c r="A50" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B50">
+        <v>0.4594783154332503</v>
+      </c>
+      <c r="E50">
+        <v>0.9785809165457912</v>
+      </c>
+      <c r="F50">
+        <v>0.9786394735427415</v>
+      </c>
+      <c r="G50">
+        <v>0.9948819661243231</v>
+      </c>
+      <c r="H50">
+        <v>0.9946809099319017</v>
+      </c>
+      <c r="I50">
+        <v>-0.9988764018698986</v>
+      </c>
+      <c r="J50">
+        <v>0.7026170665012132</v>
+      </c>
+      <c r="K50">
+        <v>-0.9693925155412242</v>
+      </c>
+      <c r="L50">
+        <v>0.7468982814160203</v>
+      </c>
+      <c r="M50">
+        <v>-0.9898576348379629</v>
+      </c>
+      <c r="N50">
+        <v>0.5959217658262861</v>
+      </c>
+      <c r="O50">
+        <v>-0.9847832862222307</v>
+      </c>
+      <c r="P50">
+        <v>-0.9902638546830071</v>
+      </c>
+      <c r="Q50">
+        <v>-0.9918567959983354</v>
+      </c>
+      <c r="R50">
+        <v>-0.9840863421190175</v>
+      </c>
+      <c r="S50">
+        <v>-0.9814862503269705</v>
+      </c>
+      <c r="T50">
+        <v>-0.1041212593082176</v>
+      </c>
+      <c r="U50">
+        <v>0.9912070880694537</v>
+      </c>
+      <c r="W50">
+        <v>-0.9536649605650765</v>
+      </c>
+      <c r="X50">
+        <v>-0.9632986743280292</v>
+      </c>
+      <c r="Y50">
+        <v>-0.9400721662321874</v>
+      </c>
+      <c r="AA50">
+        <v>0.9967945208484946</v>
+      </c>
+      <c r="AB50">
+        <v>0.9991437538438234</v>
+      </c>
+      <c r="AD50">
+        <v>-0.9892161308960553</v>
+      </c>
+      <c r="AE50">
+        <v>0.9968143062261096</v>
+      </c>
+      <c r="AF50">
+        <v>0.9973498251313673</v>
+      </c>
+      <c r="AG50">
+        <v>0.9886495184315015</v>
+      </c>
+      <c r="AH50">
+        <v>0.9881195372946125</v>
+      </c>
+      <c r="AI50">
+        <v>-0.9502797234051535</v>
+      </c>
+      <c r="AJ50">
+        <v>-0.9703715781604997</v>
+      </c>
+      <c r="AK50">
+        <v>-0.4345132031872185</v>
+      </c>
+      <c r="AL50">
+        <v>0.9910328329105605</v>
+      </c>
+      <c r="AM50">
+        <v>-0.9011849586071649</v>
+      </c>
+      <c r="AN50">
+        <v>0.977544711192382</v>
+      </c>
+      <c r="AO50">
+        <v>-0.9876930227653329</v>
+      </c>
+      <c r="AP50">
+        <v>-0.9868055881248917</v>
+      </c>
+      <c r="AQ50">
+        <v>-0.9872505244603702</v>
+      </c>
+      <c r="AR50">
+        <v>-0.9506462827692337</v>
+      </c>
+      <c r="AT50">
+        <v>-0.9808135370609227</v>
+      </c>
+      <c r="AU50">
+        <v>-0.9808524992223568</v>
+      </c>
+    </row>
+    <row r="51" spans="1:47">
+      <c r="A51" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B51">
+        <v>0.09835447802727706</v>
+      </c>
+      <c r="E51">
+        <v>1.331311725523649e-09</v>
+      </c>
+      <c r="F51">
+        <v>1.309788367018341e-09</v>
+      </c>
+      <c r="G51">
+        <v>2.566511052055122e-13</v>
+      </c>
+      <c r="H51">
+        <v>3.232665545646952e-13</v>
+      </c>
+      <c r="I51">
+        <v>2.898091931345826e-17</v>
+      </c>
+      <c r="J51">
+        <v>0.005073648283028793</v>
+      </c>
+      <c r="K51">
+        <v>1.111222691778113e-08</v>
+      </c>
+      <c r="L51">
+        <v>0.002144398430828071</v>
+      </c>
+      <c r="M51">
+        <v>1.537693596376347e-11</v>
+      </c>
+      <c r="N51">
+        <v>0.0245166527298762</v>
+      </c>
+      <c r="O51">
+        <v>1.734656978524846e-10</v>
+      </c>
+      <c r="P51">
+        <v>1.204304074511538e-11</v>
+      </c>
+      <c r="Q51">
+        <v>4.136884761211913e-12</v>
+      </c>
+      <c r="R51">
+        <v>2.265979075792631e-10</v>
+      </c>
+      <c r="S51">
+        <v>5.586836090958418e-10</v>
+      </c>
+      <c r="T51">
+        <v>0.7231675955271694</v>
+      </c>
+      <c r="U51">
+        <v>6.54773687542267e-12</v>
+      </c>
+      <c r="W51">
+        <v>1.292503635231655e-07</v>
+      </c>
+      <c r="X51">
+        <v>3.259708910881579e-08</v>
+      </c>
+      <c r="Y51">
+        <v>5.872557167787612e-07</v>
+      </c>
+      <c r="AA51">
+        <v>1.55548110020434e-14</v>
+      </c>
+      <c r="AB51">
+        <v>5.679195555303613e-18</v>
+      </c>
+      <c r="AD51">
+        <v>2.218617987425231e-11</v>
+      </c>
+      <c r="AE51">
+        <v>1.498820400425317e-14</v>
+      </c>
+      <c r="AF51">
+        <v>4.973608141891516e-15</v>
+      </c>
+      <c r="AG51">
+        <v>3.012943598359163e-11</v>
+      </c>
+      <c r="AH51">
+        <v>3.957399828564936e-11</v>
+      </c>
+      <c r="AI51">
+        <v>1.958686529259315e-07</v>
+      </c>
+      <c r="AJ51">
+        <v>9.162382739900815e-09</v>
+      </c>
+      <c r="AK51">
+        <v>0.1205336802456359</v>
+      </c>
+      <c r="AL51">
+        <v>7.363151183153169e-12</v>
+      </c>
+      <c r="AM51">
+        <v>1.083039634672163e-05</v>
+      </c>
+      <c r="AN51">
+        <v>1.763654991983759e-09</v>
+      </c>
+      <c r="AO51">
+        <v>4.885616354895935e-11</v>
+      </c>
+      <c r="AP51">
+        <v>7.404933611039892e-11</v>
+      </c>
+      <c r="AQ51">
+        <v>6.033246361412583e-11</v>
+      </c>
+      <c r="AR51">
+        <v>1.875127551741475e-07</v>
+      </c>
+      <c r="AT51">
+        <v>6.910960442928217e-10</v>
+      </c>
+      <c r="AU51">
+        <v>6.827756144689431e-10</v>
+      </c>
+    </row>
+    <row r="52" spans="1:47">
+      <c r="A52" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B52">
+        <v>0.4939587095582199</v>
+      </c>
+      <c r="E52">
+        <v>0.9883436309503227</v>
+      </c>
+      <c r="F52">
+        <v>0.9883645089493571</v>
+      </c>
+      <c r="G52">
+        <v>0.9928705232123997</v>
+      </c>
+      <c r="H52">
+        <v>0.9923210681862145</v>
+      </c>
+      <c r="I52">
+        <v>-0.9955652226598</v>
+      </c>
+      <c r="J52">
+        <v>0.7459202934119621</v>
+      </c>
+      <c r="K52">
+        <v>-0.9788743728442875</v>
+      </c>
+      <c r="L52">
+        <v>0.7688024662796402</v>
+      </c>
+      <c r="M52">
+        <v>-0.9884008400125994</v>
+      </c>
+      <c r="N52">
+        <v>0.6188688735722498</v>
+      </c>
+      <c r="O52">
+        <v>-0.9799998767433412</v>
+      </c>
+      <c r="P52">
+        <v>-0.9947310884772294</v>
+      </c>
+      <c r="Q52">
+        <v>-0.9937579271153256</v>
+      </c>
+      <c r="R52">
+        <v>-0.9857494203942059</v>
+      </c>
+      <c r="S52">
+        <v>-0.9844518836480416</v>
+      </c>
+      <c r="T52">
+        <v>-0.1532085398949341</v>
+      </c>
+      <c r="U52">
+        <v>0.9883540416946096</v>
+      </c>
+      <c r="W52">
+        <v>-0.9663605355209649</v>
+      </c>
+      <c r="X52">
+        <v>-0.9430680300888352</v>
+      </c>
+      <c r="Y52">
+        <v>-0.9146887561324231</v>
+      </c>
+      <c r="AB52">
+        <v>0.999242058845916</v>
+      </c>
+      <c r="AD52">
+        <v>-0.9885728863298203</v>
+      </c>
+      <c r="AE52">
+        <v>0.9929320924004951</v>
+      </c>
+      <c r="AF52">
+        <v>0.9955265922974659</v>
+      </c>
+      <c r="AG52">
+        <v>0.9806226952580603</v>
+      </c>
+      <c r="AH52">
+        <v>0.9803793755027856</v>
+      </c>
+      <c r="AI52">
+        <v>-0.9542028755507488</v>
+      </c>
+      <c r="AJ52">
+        <v>-0.9731091142342636</v>
+      </c>
+      <c r="AK52">
+        <v>-0.3873352385082129</v>
+      </c>
+      <c r="AL52">
+        <v>0.9882821151119133</v>
+      </c>
+      <c r="AM52">
+        <v>-0.9243571037423541</v>
+      </c>
+      <c r="AN52">
+        <v>0.9648321880723659</v>
+      </c>
+      <c r="AO52">
+        <v>-0.9870959849719042</v>
+      </c>
+      <c r="AP52">
+        <v>-0.9866205375561252</v>
+      </c>
+      <c r="AQ52">
+        <v>-0.9868624685668411</v>
+      </c>
+      <c r="AR52">
+        <v>-0.9590858990667136</v>
+      </c>
+      <c r="AT52">
+        <v>-0.9842111540315412</v>
+      </c>
+      <c r="AU52">
+        <v>-0.9842007727208848</v>
+      </c>
+    </row>
+    <row r="53" spans="1:47">
+      <c r="A53" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B53">
+        <v>0.07261455948555348</v>
+      </c>
+      <c r="E53">
+        <v>3.531823969483014e-11</v>
+      </c>
+      <c r="F53">
+        <v>3.494194959886662e-11</v>
+      </c>
+      <c r="G53">
+        <v>1.86721244926833e-12</v>
+      </c>
+      <c r="H53">
+        <v>2.911654329496646e-12</v>
+      </c>
+      <c r="I53">
+        <v>1.087908013606942e-13</v>
+      </c>
+      <c r="J53">
+        <v>0.002189503693990163</v>
+      </c>
+      <c r="K53">
+        <v>1.226330477935346e-09</v>
+      </c>
+      <c r="L53">
+        <v>0.001311979420917696</v>
+      </c>
+      <c r="M53">
+        <v>3.429509672908842e-11</v>
+      </c>
+      <c r="N53">
+        <v>0.01829125964569714</v>
+      </c>
+      <c r="O53">
+        <v>8.851193604004661e-10</v>
+      </c>
+      <c r="P53">
+        <v>3.054280635415214e-13</v>
+      </c>
+      <c r="Q53">
+        <v>8.426530747468958e-13</v>
+      </c>
+      <c r="R53">
+        <v>1.172702613989503e-10</v>
+      </c>
+      <c r="S53">
+        <v>1.972626130996127e-10</v>
+      </c>
+      <c r="T53">
+        <v>0.6010354974965285</v>
+      </c>
+      <c r="U53">
+        <v>3.513018475441139e-11</v>
+      </c>
+      <c r="W53">
+        <v>1.94568289244463e-08</v>
+      </c>
+      <c r="X53">
+        <v>4.345566250983266e-07</v>
+      </c>
+      <c r="Y53">
+        <v>4.621466354617033e-06</v>
+      </c>
+      <c r="AB53">
+        <v>2.732747217237239e-18</v>
+      </c>
+      <c r="AD53">
+        <v>3.136555117264454e-11</v>
+      </c>
+      <c r="AE53">
+        <v>1.772761926726434e-12</v>
+      </c>
+      <c r="AF53">
+        <v>1.145924831902514e-13</v>
+      </c>
+      <c r="AG53">
+        <v>7.330779406505555e-10</v>
+      </c>
+      <c r="AH53">
+        <v>7.896573925850352e-10</v>
+      </c>
+      <c r="AI53">
+        <v>1.206461908943553e-07</v>
+      </c>
+      <c r="AJ53">
+        <v>5.151861199246285e-09</v>
+      </c>
+      <c r="AK53">
+        <v>0.1712221563641517</v>
+      </c>
+      <c r="AL53">
+        <v>3.644661228801605e-11</v>
+      </c>
+      <c r="AM53">
+        <v>2.294252016844103e-06</v>
+      </c>
+      <c r="AN53">
+        <v>2.53167487040187e-08</v>
+      </c>
+      <c r="AO53">
+        <v>6.483384122095148e-11</v>
+      </c>
+      <c r="AP53">
+        <v>8.047107820348795e-11</v>
+      </c>
+      <c r="AQ53">
+        <v>7.216336341444007e-11</v>
+      </c>
+      <c r="AR53">
+        <v>6.199337434574142e-08</v>
+      </c>
+      <c r="AT53">
+        <v>2.161996570607074e-10</v>
+      </c>
+      <c r="AU53">
+        <v>2.170491212326463e-10</v>
+      </c>
+    </row>
+    <row r="54" spans="1:47">
+      <c r="A54" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="I54">
+        <v>-0.9979324777574016</v>
+      </c>
+      <c r="J54">
+        <v>0.7247307666384964</v>
+      </c>
+      <c r="K54">
+        <v>-0.9744902852585665</v>
+      </c>
+      <c r="L54">
+        <v>0.7587023857175416</v>
+      </c>
+      <c r="U54">
+        <v>0.9902233354603229</v>
+      </c>
+      <c r="AD54">
+        <v>-0.9893158933191849</v>
+      </c>
+      <c r="AL54">
+        <v>0.9900908622052986</v>
+      </c>
+    </row>
+    <row r="55" spans="1:47">
+      <c r="A55" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="I55">
+        <v>1.122711723626408e-15</v>
+      </c>
+      <c r="J55">
+        <v>0.003365933535458585</v>
+      </c>
+      <c r="K55">
+        <v>3.765874385873849e-09</v>
+      </c>
+      <c r="L55">
+        <v>0.001655770515560312</v>
+      </c>
+      <c r="U55">
+        <v>1.234583023750006e-11</v>
+      </c>
+      <c r="AD55">
+        <v>2.09873407258694e-11</v>
+      </c>
+      <c r="AL55">
+        <v>1.338034964445114e-11</v>
+      </c>
+    </row>
+    <row r="56" spans="1:47">
+      <c r="A56" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B56">
+        <v>0.4447993412470507</v>
+      </c>
+      <c r="E56">
+        <v>0.9503686626550198</v>
+      </c>
+      <c r="F56">
+        <v>0.9504234329447675</v>
+      </c>
+      <c r="G56">
+        <v>0.9753719441829151</v>
+      </c>
+      <c r="H56">
+        <v>0.9751158638315622</v>
+      </c>
+      <c r="I56">
+        <v>-0.9844016711013396</v>
+      </c>
+      <c r="J56">
+        <v>0.6686025563188099</v>
+      </c>
+      <c r="K56">
+        <v>-0.9329190571651113</v>
+      </c>
+      <c r="L56">
+        <v>0.762461968674008</v>
+      </c>
+      <c r="M56">
+        <v>-0.9725489683563213</v>
+      </c>
+      <c r="N56">
+        <v>0.6073655284865289</v>
+      </c>
+      <c r="O56">
+        <v>-0.9727071825654825</v>
+      </c>
+      <c r="P56">
+        <v>-0.9633940388184115</v>
+      </c>
+      <c r="Q56">
+        <v>-0.969243021954947</v>
+      </c>
+      <c r="R56">
+        <v>-0.94990496339537</v>
+      </c>
+      <c r="S56">
+        <v>-0.9444289629257446</v>
+      </c>
+      <c r="U56">
+        <v>0.9631300936251874</v>
+      </c>
+      <c r="W56">
+        <v>-0.9108191760543798</v>
+      </c>
+      <c r="X56">
+        <v>-0.9695046791712912</v>
+      </c>
+      <c r="Y56">
+        <v>-0.9468388148096405</v>
+      </c>
+      <c r="Z56">
+        <v>0.9879191198138441</v>
+      </c>
+      <c r="AA56">
+        <v>0.9814068835233349</v>
+      </c>
+      <c r="AB56">
+        <v>0.9856967712489011</v>
+      </c>
+      <c r="AD56">
+        <v>-0.9592625877395601</v>
+      </c>
+      <c r="AE56">
+        <v>0.9840467077395955</v>
+      </c>
+      <c r="AF56">
+        <v>0.9833751335173153</v>
+      </c>
+      <c r="AG56">
+        <v>0.9953134387329454</v>
+      </c>
+      <c r="AH56">
+        <v>0.9970030143161055</v>
+      </c>
+      <c r="AI56">
+        <v>-0.896271140802529</v>
+      </c>
+      <c r="AJ56">
+        <v>-0.9268001118296192</v>
+      </c>
+      <c r="AK56">
+        <v>-0.4843557114285033</v>
+      </c>
+      <c r="AL56">
+        <v>0.962761375629084</v>
+      </c>
+      <c r="AM56">
+        <v>-0.8527397420411864</v>
+      </c>
+      <c r="AN56">
+        <v>0.9533845044375773</v>
+      </c>
+      <c r="AO56">
+        <v>-0.9557674791383692</v>
+      </c>
+      <c r="AP56">
+        <v>-0.9540594546304833</v>
+      </c>
+      <c r="AQ56">
+        <v>-0.954908227323766</v>
+      </c>
+      <c r="AR56">
+        <v>-0.9032224516939645</v>
+      </c>
+      <c r="AT56">
+        <v>-0.9446318727528265</v>
+      </c>
+      <c r="AU56">
+        <v>-0.9446422403845494</v>
+      </c>
+    </row>
+    <row r="57" spans="1:47">
+      <c r="A57" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B57">
+        <v>0.1110203182650671</v>
+      </c>
+      <c r="E57">
+        <v>1.938134887884436e-07</v>
+      </c>
+      <c r="F57">
+        <v>1.925567814125945e-07</v>
+      </c>
+      <c r="G57">
+        <v>3.055214037351345e-09</v>
+      </c>
+      <c r="H57">
+        <v>3.249044255039616e-09</v>
+      </c>
+      <c r="I57">
+        <v>2.010941857129827e-10</v>
+      </c>
+      <c r="J57">
+        <v>0.0089434483905658</v>
+      </c>
+      <c r="K57">
+        <v>1.137166608502191e-06</v>
+      </c>
+      <c r="L57">
+        <v>0.001520327260958744</v>
+      </c>
+      <c r="M57">
+        <v>5.823158674034537e-09</v>
+      </c>
+      <c r="N57">
+        <v>0.02124036726066394</v>
+      </c>
+      <c r="O57">
+        <v>5.626595051088386e-09</v>
+      </c>
+      <c r="P57">
+        <v>3.209883297325443e-08</v>
+      </c>
+      <c r="Q57">
+        <v>1.143816700737225e-08</v>
+      </c>
+      <c r="R57">
+        <v>2.047275040168613e-07</v>
+      </c>
+      <c r="S57">
+        <v>3.76959919739239e-07</v>
+      </c>
+      <c r="U57">
+        <v>3.349356203869789e-08</v>
+      </c>
+      <c r="W57">
+        <v>5.979194948969724e-06</v>
+      </c>
+      <c r="X57">
+        <v>1.087276909127887e-08</v>
+      </c>
+      <c r="Y57">
+        <v>2.904447784665986e-07</v>
+      </c>
+      <c r="Z57">
+        <v>4.373346274839913e-11</v>
+      </c>
+      <c r="AA57">
+        <v>5.731104706581365e-10</v>
+      </c>
+      <c r="AB57">
+        <v>1.198803370009748e-10</v>
+      </c>
+      <c r="AD57">
+        <v>6.042754319191734e-08</v>
+      </c>
+      <c r="AE57">
+        <v>2.299855783840253e-10</v>
+      </c>
+      <c r="AF57">
+        <v>2.94116007620357e-10</v>
+      </c>
+      <c r="AG57">
+        <v>1.514440837216555e-13</v>
+      </c>
+      <c r="AH57">
+        <v>1.039463578275489e-14</v>
+      </c>
+      <c r="AI57">
+        <v>1.433317199604802e-05</v>
+      </c>
+      <c r="AJ57">
+        <v>1.894246336806362e-06</v>
+      </c>
+      <c r="AK57">
+        <v>0.07923782940219613</v>
+      </c>
+      <c r="AL57">
+        <v>3.552570504294243e-08</v>
+      </c>
+      <c r="AM57">
+        <v>0.0001063800939453413</v>
+      </c>
+      <c r="AN57">
+        <v>1.33933908179476e-07</v>
+      </c>
+      <c r="AO57">
+        <v>9.826904091443795e-08</v>
+      </c>
+      <c r="AP57">
+        <v>1.228924828762451e-07</v>
+      </c>
+      <c r="AQ57">
+        <v>1.100871256719031e-07</v>
+      </c>
+      <c r="AR57">
+        <v>9.60119272334767e-06</v>
+      </c>
+      <c r="AT57">
+        <v>3.689403876549134e-07</v>
+      </c>
+      <c r="AU57">
+        <v>3.685344479903188e-07</v>
+      </c>
+    </row>
+    <row r="58" spans="1:47">
+      <c r="A58" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="I58">
+        <v>0.9927262870923196</v>
+      </c>
+      <c r="K58">
+        <v>0.9851966725568859</v>
+      </c>
+      <c r="L58">
+        <v>-0.7267471452815795</v>
+      </c>
+      <c r="U58">
+        <v>-0.9984786017487118</v>
+      </c>
+      <c r="AL58">
+        <v>-0.9986681193529349</v>
+      </c>
+    </row>
+    <row r="59" spans="1:47">
+      <c r="A59" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I59">
+        <v>2.104990304993157e-12</v>
+      </c>
+      <c r="K59">
+        <v>1.471741178755008e-10</v>
+      </c>
+      <c r="L59">
+        <v>0.003236283159507274</v>
+      </c>
+      <c r="U59">
+        <v>1.784568364870595e-16</v>
+      </c>
+      <c r="AL59">
+        <v>8.036075974876835e-17</v>
+      </c>
+    </row>
+    <row r="60" spans="1:47">
+      <c r="A60" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E60">
+        <v>0.9772137888378742</v>
+      </c>
+      <c r="F60">
+        <v>0.977283941293736</v>
+      </c>
+      <c r="G60">
+        <v>0.9926693479077364</v>
+      </c>
+      <c r="H60">
+        <v>0.9925932913428287</v>
+      </c>
+      <c r="I60">
+        <v>-0.9988062177214204</v>
+      </c>
+      <c r="J60">
+        <v>0.6762039357955753</v>
+      </c>
+      <c r="K60">
+        <v>-0.9635735172027755</v>
+      </c>
+      <c r="L60">
+        <v>0.7298455551766966</v>
+      </c>
+      <c r="S60">
+        <v>-0.9816976648420513</v>
+      </c>
+      <c r="U60">
+        <v>0.9931215021580921</v>
+      </c>
+      <c r="W60">
+        <v>-0.9466583821733752</v>
+      </c>
+      <c r="AB60">
+        <v>0.9956303883996028</v>
+      </c>
+      <c r="AD60">
+        <v>-0.9909998802710684</v>
+      </c>
+      <c r="AF60">
+        <v>0.9995593524786218</v>
+      </c>
+      <c r="AG60">
+        <v>0.9917684474836742</v>
+      </c>
+      <c r="AH60">
+        <v>0.9897752115596886</v>
+      </c>
+      <c r="AI60">
+        <v>-0.9495178960857901</v>
+      </c>
+      <c r="AJ60">
+        <v>-0.9694807896306775</v>
+      </c>
+      <c r="AK60">
+        <v>-0.397253802477584</v>
+      </c>
+      <c r="AL60">
+        <v>0.9928633852456926</v>
+      </c>
+      <c r="AM60">
+        <v>-0.8885300565205133</v>
+      </c>
+      <c r="AN60">
+        <v>0.9849577923429375</v>
+      </c>
+      <c r="AO60">
+        <v>-0.9882589491702554</v>
+      </c>
+      <c r="AP60">
+        <v>-0.9871545276790099</v>
+      </c>
+      <c r="AQ60">
+        <v>-0.9877065630153422</v>
+      </c>
+      <c r="AR60">
+        <v>-0.9464673860866245</v>
+      </c>
+      <c r="AT60">
+        <v>-0.9791964869136244</v>
+      </c>
+      <c r="AU60">
+        <v>-0.9792743052573953</v>
+      </c>
+    </row>
+    <row r="61" spans="1:47">
+      <c r="A61" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E61">
+        <v>1.924082737088861e-09</v>
+      </c>
+      <c r="F61">
+        <v>1.889099378915927e-09</v>
+      </c>
+      <c r="G61">
+        <v>2.205543750371838e-12</v>
+      </c>
+      <c r="H61">
+        <v>2.346068082631677e-12</v>
+      </c>
+      <c r="I61">
+        <v>4.168036672329062e-17</v>
+      </c>
+      <c r="J61">
+        <v>0.007927444116655972</v>
+      </c>
+      <c r="K61">
+        <v>3.117821480637602e-08</v>
+      </c>
+      <c r="L61">
+        <v>0.003044756032205083</v>
+      </c>
+      <c r="S61">
+        <v>5.217191897977616e-10</v>
+      </c>
+      <c r="U61">
+        <v>1.506758406869984e-12</v>
+      </c>
+      <c r="W61">
+        <v>2.962929055701363e-07</v>
+      </c>
+      <c r="AB61">
+        <v>9.955865523035586e-14</v>
+      </c>
+      <c r="AD61">
+        <v>7.526465761996343e-12</v>
+      </c>
+      <c r="AF61">
+        <v>1.055917216351379e-19</v>
+      </c>
+      <c r="AG61">
+        <v>4.412752494659926e-12</v>
+      </c>
+      <c r="AH61">
+        <v>1.613924896890503e-11</v>
+      </c>
+      <c r="AI61">
+        <v>2.142225695333412e-07</v>
+      </c>
+      <c r="AJ61">
+        <v>1.092340861491283e-08</v>
+      </c>
+      <c r="AK61">
+        <v>0.1595789398560211</v>
+      </c>
+      <c r="AL61">
+        <v>1.878428364778705e-12</v>
+      </c>
+      <c r="AM61">
+        <v>2.169558356123595e-05</v>
+      </c>
+      <c r="AN61">
+        <v>1.619277297634105e-10</v>
+      </c>
+      <c r="AO61">
+        <v>3.68792392142423e-11</v>
+      </c>
+      <c r="AP61">
+        <v>6.309687006996377e-11</v>
+      </c>
+      <c r="AQ61">
+        <v>4.853595238645287e-11</v>
+      </c>
+      <c r="AR61">
+        <v>3.025891168102089e-07</v>
+      </c>
+      <c r="AT61">
+        <v>1.119108504468701e-09</v>
+      </c>
+      <c r="AU61">
+        <v>1.094409144171849e-09</v>
+      </c>
+    </row>
+    <row r="62" spans="1:47">
+      <c r="A62" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E62">
+        <v>0.9813871884839479</v>
+      </c>
+      <c r="F62">
+        <v>0.9814439304148399</v>
+      </c>
+      <c r="G62">
+        <v>0.9930332905293533</v>
+      </c>
+      <c r="H62">
+        <v>0.9928310833895412</v>
+      </c>
+      <c r="I62">
+        <v>-0.9989717053217404</v>
+      </c>
+      <c r="J62">
+        <v>0.6928082885064721</v>
+      </c>
+      <c r="K62">
+        <v>-0.9680390358437732</v>
+      </c>
+      <c r="L62">
+        <v>0.7356094087624874</v>
+      </c>
+      <c r="S62">
+        <v>-0.9835807893356245</v>
+      </c>
+      <c r="U62">
+        <v>0.9929730703533796</v>
+      </c>
+      <c r="W62">
+        <v>-0.9521681683582468</v>
+      </c>
+      <c r="AB62">
+        <v>0.9972280676510374</v>
+      </c>
+      <c r="AD62">
+        <v>-0.9917475782455766</v>
+      </c>
+      <c r="AG62">
+        <v>0.9899620604158872</v>
+      </c>
+      <c r="AH62">
+        <v>0.9880077746832019</v>
+      </c>
+      <c r="AI62">
+        <v>-0.9514605258102897</v>
+      </c>
+      <c r="AJ62">
+        <v>-0.9711403854888669</v>
+      </c>
+      <c r="AK62">
+        <v>-0.3902895227753803</v>
+      </c>
+      <c r="AL62">
+        <v>0.9927381284005807</v>
+      </c>
+      <c r="AM62">
+        <v>-0.8979068343888785</v>
+      </c>
+      <c r="AN62">
+        <v>0.9809866593493454</v>
+      </c>
+      <c r="AO62">
+        <v>-0.9888632964924126</v>
+      </c>
+      <c r="AP62">
+        <v>-0.9879035020842635</v>
+      </c>
+      <c r="AQ62">
+        <v>-0.9883842484703429</v>
+      </c>
+      <c r="AR62">
+        <v>-0.9501302655355144</v>
+      </c>
+      <c r="AT62">
+        <v>-0.9812456712745751</v>
+      </c>
+      <c r="AU62">
+        <v>-0.9813052793825308</v>
+      </c>
+    </row>
+    <row r="63" spans="1:47">
+      <c r="A63" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E63">
+        <v>5.767380656346642e-10</v>
+      </c>
+      <c r="F63">
+        <v>5.663382418646162e-10</v>
+      </c>
+      <c r="G63">
+        <v>1.626169732103724e-12</v>
+      </c>
+      <c r="H63">
+        <v>1.929888164923991e-12</v>
+      </c>
+      <c r="I63">
+        <v>1.703100867573543e-17</v>
+      </c>
+      <c r="J63">
+        <v>0.00601934581341551</v>
+      </c>
+      <c r="K63">
+        <v>1.436412815218925e-08</v>
+      </c>
+      <c r="L63">
+        <v>0.002712298288828428</v>
+      </c>
+      <c r="S63">
+        <v>2.730712352499496e-10</v>
+      </c>
+      <c r="U63">
+        <v>1.7121314709842e-12</v>
+      </c>
+      <c r="W63">
+        <v>1.559040790220289e-07</v>
+      </c>
+      <c r="AB63">
+        <v>6.510385515411398e-15</v>
+      </c>
+      <c r="AD63">
+        <v>4.480103593592122e-12</v>
+      </c>
+      <c r="AG63">
+        <v>1.445437715953642e-11</v>
+      </c>
+      <c r="AH63">
+        <v>4.185082053780961e-11</v>
+      </c>
+      <c r="AI63">
+        <v>1.700022169844667e-07</v>
+      </c>
+      <c r="AJ63">
+        <v>7.838342677905288e-09</v>
+      </c>
+      <c r="AK63">
+        <v>0.1676981476007406</v>
+      </c>
+      <c r="AL63">
+        <v>2.08456581913716e-12</v>
+      </c>
+      <c r="AM63">
+        <v>1.307707759227381e-05</v>
+      </c>
+      <c r="AN63">
+        <v>6.547594841962699e-10</v>
+      </c>
+      <c r="AO63">
+        <v>2.689335912354472e-11</v>
+      </c>
+      <c r="AP63">
+        <v>4.407230130286562e-11</v>
+      </c>
+      <c r="AQ63">
+        <v>3.458925195660276e-11</v>
+      </c>
+      <c r="AR63">
+        <v>1.993628336018037e-07</v>
+      </c>
+      <c r="AT63">
+        <v>6.03369302467236e-10</v>
+      </c>
+      <c r="AU63">
+        <v>5.920301520746142e-10</v>
+      </c>
+    </row>
+    <row r="64" spans="1:47">
+      <c r="A64" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E64">
+        <v>0.9527792808084885</v>
+      </c>
+      <c r="F64">
+        <v>0.9528567309357455</v>
+      </c>
+      <c r="G64">
+        <v>0.9775755301419945</v>
+      </c>
+      <c r="H64">
+        <v>0.977553939961208</v>
+      </c>
+      <c r="I64">
+        <v>-0.9889851775225574</v>
+      </c>
+      <c r="J64">
+        <v>0.6338422938996811</v>
+      </c>
+      <c r="K64">
+        <v>-0.9312755404570076</v>
+      </c>
+      <c r="L64">
+        <v>0.7282284938590428</v>
+      </c>
+      <c r="S64">
+        <v>-0.9524973418132402</v>
+      </c>
+      <c r="U64">
+        <v>0.9720884705913794</v>
+      </c>
+      <c r="W64">
+        <v>-0.9083935645580887</v>
+      </c>
+      <c r="AB64">
+        <v>0.9856187374749944</v>
+      </c>
+      <c r="AD64">
+        <v>-0.9679044626106591</v>
+      </c>
+      <c r="AH64">
+        <v>0.999170716476658</v>
+      </c>
+      <c r="AI64">
+        <v>-0.9050119769860968</v>
+      </c>
+      <c r="AJ64">
+        <v>-0.9337262535909728</v>
+      </c>
+      <c r="AK64">
+        <v>-0.4493564972495038</v>
+      </c>
+      <c r="AL64">
+        <v>0.9715517201066869</v>
+      </c>
+      <c r="AM64">
+        <v>-0.8425563313714002</v>
+      </c>
+      <c r="AN64">
+        <v>0.9697849770251395</v>
+      </c>
+      <c r="AO64">
+        <v>-0.9631231450335263</v>
+      </c>
+      <c r="AP64">
+        <v>-0.9612103671451249</v>
+      </c>
+      <c r="AQ64">
+        <v>-0.9621603141772772</v>
+      </c>
+      <c r="AR64">
+        <v>-0.9052691723064297</v>
+      </c>
+      <c r="AT64">
+        <v>-0.9492759838008026</v>
+      </c>
+      <c r="AU64">
+        <v>-0.9493517683741948</v>
+      </c>
+    </row>
+    <row r="65" spans="1:47">
+      <c r="A65" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E65">
+        <v>1.445208487148971e-07</v>
+      </c>
+      <c r="F65">
+        <v>1.431286326621069e-07</v>
+      </c>
+      <c r="G65">
+        <v>1.749298020778122e-09</v>
+      </c>
+      <c r="H65">
+        <v>1.759345553562338e-09</v>
+      </c>
+      <c r="I65">
+        <v>2.518164170468027e-11</v>
+      </c>
+      <c r="J65">
+        <v>0.01493030818219528</v>
+      </c>
+      <c r="K65">
+        <v>1.310164667790412e-06</v>
+      </c>
+      <c r="L65">
+        <v>0.003143565632542354</v>
+      </c>
+      <c r="S65">
+        <v>1.496838876025703e-07</v>
+      </c>
+      <c r="U65">
+        <v>6.427989359633688e-09</v>
+      </c>
+      <c r="W65">
+        <v>6.986018120603926e-06</v>
+      </c>
+      <c r="AB65">
+        <v>1.238375931551786e-10</v>
+      </c>
+      <c r="AD65">
+        <v>1.472655343515676e-08</v>
+      </c>
+      <c r="AH65">
+        <v>4.687468200560244e-18</v>
+      </c>
+      <c r="AI65">
+        <v>8.61828392010588e-06</v>
+      </c>
+      <c r="AJ65">
+        <v>1.059374739036044e-06</v>
+      </c>
+      <c r="AK65">
+        <v>0.1069748284994486</v>
+      </c>
+      <c r="AL65">
+        <v>7.1978752744174e-09</v>
+      </c>
+      <c r="AM65">
+        <v>0.0001552471165076272</v>
+      </c>
+      <c r="AN65">
+        <v>1.029301235793184e-08</v>
+      </c>
+      <c r="AO65">
+        <v>3.353094695537441e-08</v>
+      </c>
+      <c r="AP65">
+        <v>4.52282401656568e-08</v>
+      </c>
+      <c r="AQ65">
+        <v>3.905695116901448e-08</v>
+      </c>
+      <c r="AR65">
+        <v>8.484070406146847e-06</v>
+      </c>
+      <c r="AT65">
+        <v>2.203396505679749e-07</v>
+      </c>
+      <c r="AU65">
+        <v>2.184079975679841e-07</v>
+      </c>
+    </row>
+    <row r="66" spans="1:47">
+      <c r="A66" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E66">
+        <v>0.9531414134618093</v>
+      </c>
+      <c r="F66">
+        <v>0.9532082416965896</v>
+      </c>
+      <c r="G66">
+        <v>0.977528086087966</v>
+      </c>
+      <c r="H66">
+        <v>0.9773977035366255</v>
+      </c>
+      <c r="I66">
+        <v>-0.9876535799439738</v>
+      </c>
+      <c r="J66">
+        <v>0.6500360238142788</v>
+      </c>
+      <c r="K66">
+        <v>-0.9341569788029568</v>
+      </c>
+      <c r="L66">
+        <v>0.7458627604125122</v>
+      </c>
+      <c r="U66">
+        <v>0.9702642896392736</v>
+      </c>
+      <c r="W66">
+        <v>-0.9118910295204052</v>
+      </c>
+      <c r="AB66">
+        <v>0.9852060044535176</v>
+      </c>
+      <c r="AD66">
+        <v>-0.9667891780822281</v>
+      </c>
+      <c r="AK66">
+        <v>-0.4493576298744888</v>
+      </c>
+      <c r="AL66">
+        <v>0.9698615899922286</v>
+      </c>
+    </row>
+    <row r="67" spans="1:47">
+      <c r="A67" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E67">
+        <v>1.381062603272712e-07</v>
+      </c>
+      <c r="F67">
+        <v>1.369486657839983e-07</v>
+      </c>
+      <c r="G67">
+        <v>1.77144032493484e-09</v>
+      </c>
+      <c r="H67">
+        <v>1.833492482647794e-09</v>
+      </c>
+      <c r="I67">
+        <v>4.979897273499279e-11</v>
+      </c>
+      <c r="J67">
+        <v>0.01184867251277716</v>
+      </c>
+      <c r="K67">
+        <v>1.019695423849257e-06</v>
+      </c>
+      <c r="L67">
+        <v>0.002192180348493642</v>
+      </c>
+      <c r="U67">
+        <v>9.361085212427816e-09</v>
+      </c>
+      <c r="W67">
+        <v>5.574011980822069e-06</v>
+      </c>
+      <c r="AB67">
+        <v>1.466212793399047e-10</v>
+      </c>
+      <c r="AD67">
+        <v>1.803265064627672e-08</v>
+      </c>
+      <c r="AK67">
+        <v>0.1069738358252665</v>
+      </c>
+      <c r="AL67">
+        <v>1.013909271695789e-08</v>
+      </c>
+    </row>
+    <row r="68" spans="1:47">
+      <c r="A68" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E68">
+        <v>-0.968953385927579</v>
+      </c>
+      <c r="F68">
+        <v>-0.9690032057820656</v>
+      </c>
+      <c r="G68">
+        <v>-0.9679428005602891</v>
+      </c>
+      <c r="H68">
+        <v>-0.9677320010206784</v>
+      </c>
+      <c r="I68">
+        <v>0.9551211440925476</v>
+      </c>
+      <c r="J68">
+        <v>-0.7569656688756525</v>
+      </c>
+      <c r="K68">
+        <v>0.9851291251407807</v>
+      </c>
+      <c r="L68">
+        <v>-0.7232772136472083</v>
+      </c>
+      <c r="S68">
+        <v>0.9874348215363596</v>
+      </c>
+      <c r="T68">
+        <v>0.3422045941061064</v>
+      </c>
+      <c r="U68">
+        <v>-0.9783993738885937</v>
+      </c>
+      <c r="W68">
+        <v>0.9847810842125662</v>
+      </c>
+      <c r="AB68">
+        <v>-0.9522042068535372</v>
+      </c>
+      <c r="AD68">
+        <v>0.9814740454802729</v>
+      </c>
+      <c r="AH68">
+        <v>-0.9046359215535531</v>
+      </c>
+      <c r="AJ68">
+        <v>0.9971467281891152</v>
+      </c>
+      <c r="AK68">
+        <v>0.2579665329568973</v>
+      </c>
+      <c r="AL68">
+        <v>-0.9791343181282309</v>
+      </c>
+      <c r="AM68">
+        <v>0.9519169091940696</v>
+      </c>
+      <c r="AN68">
+        <v>-0.9552598717531384</v>
+      </c>
+      <c r="AO68">
+        <v>0.9860308508727674</v>
+      </c>
+      <c r="AP68">
+        <v>0.9871733291290967</v>
+      </c>
+      <c r="AQ68">
+        <v>0.9866187238471413</v>
+      </c>
+      <c r="AR68">
+        <v>0.9943860566876694</v>
+      </c>
+      <c r="AT68">
+        <v>0.9913004557846246</v>
+      </c>
+      <c r="AU68">
+        <v>0.9913283556539826</v>
+      </c>
+    </row>
+    <row r="69" spans="1:47">
+      <c r="A69" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E69">
+        <v>1.209224855128019e-08</v>
+      </c>
+      <c r="F69">
+        <v>1.197758390815205e-08</v>
+      </c>
+      <c r="G69">
+        <v>1.462253990958117e-08</v>
+      </c>
+      <c r="H69">
+        <v>1.520207480306474e-08</v>
+      </c>
+      <c r="I69">
+        <v>1.070545287006638e-07</v>
+      </c>
+      <c r="J69">
+        <v>0.001721489338079235</v>
+      </c>
+      <c r="K69">
+        <v>1.51227666700058e-10</v>
+      </c>
+      <c r="L69">
+        <v>0.003461903595543428</v>
+      </c>
+      <c r="S69">
+        <v>5.530717499743846e-11</v>
+      </c>
+      <c r="T69">
+        <v>0.2310652375664353</v>
+      </c>
+      <c r="U69">
+        <v>1.39991642843698e-09</v>
+      </c>
+      <c r="W69">
+        <v>1.736155414644838e-10</v>
+      </c>
+      <c r="AB69">
+        <v>1.552128321862347e-07</v>
+      </c>
+      <c r="AD69">
+        <v>5.608822887080607e-10</v>
+      </c>
+      <c r="AH69">
+        <v>8.817655251408077e-06</v>
+      </c>
+      <c r="AJ69">
+        <v>7.742728650688754e-15</v>
+      </c>
+      <c r="AK69">
+        <v>0.3732299046515363</v>
+      </c>
+      <c r="AL69">
+        <v>1.139171917522386e-09</v>
+      </c>
+      <c r="AM69">
+        <v>1.607945627628678e-07</v>
+      </c>
+      <c r="AN69">
+        <v>1.05116076437625e-07</v>
+      </c>
+      <c r="AO69">
+        <v>1.041060121498895e-10</v>
+      </c>
+      <c r="AP69">
+        <v>6.254731083665222e-11</v>
+      </c>
+      <c r="AQ69">
+        <v>8.053623729099712e-11</v>
+      </c>
+      <c r="AR69">
+        <v>4.465497561597997e-13</v>
+      </c>
+      <c r="AT69">
+        <v>6.142724924592086e-12</v>
+      </c>
+      <c r="AU69">
+        <v>6.025829905925486e-12</v>
+      </c>
+    </row>
+    <row r="70" spans="1:47">
+      <c r="A70" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E70">
+        <v>-0.9812014953319359</v>
+      </c>
+      <c r="F70">
+        <v>-0.9812487319648542</v>
+      </c>
+      <c r="G70">
+        <v>-0.9831728473682212</v>
+      </c>
+      <c r="H70">
+        <v>-0.9829132851420694</v>
+      </c>
+      <c r="I70">
+        <v>0.9740817891175629</v>
+      </c>
+      <c r="J70">
+        <v>-0.7565234705000885</v>
+      </c>
+      <c r="K70">
+        <v>0.9915610134480594</v>
+      </c>
+      <c r="L70">
+        <v>-0.7415086842434996</v>
+      </c>
+      <c r="S70">
+        <v>0.9950869601899796</v>
+      </c>
+      <c r="T70">
+        <v>0.2936992031938757</v>
+      </c>
+      <c r="U70">
+        <v>-0.9900858041743084</v>
+      </c>
+      <c r="W70">
+        <v>0.9877070855570428</v>
+      </c>
+      <c r="AB70">
+        <v>-0.9718939991599163</v>
+      </c>
+      <c r="AD70">
+        <v>0.9924709287413099</v>
+      </c>
+      <c r="AH70">
+        <v>-0.9337625668176688</v>
+      </c>
+      <c r="AK70">
+        <v>0.2936325201322976</v>
+      </c>
+      <c r="AL70">
+        <v>-0.9906556104752499</v>
+      </c>
+      <c r="AM70">
+        <v>0.9508650859557917</v>
+      </c>
+      <c r="AN70">
+        <v>-0.9680985596245593</v>
+      </c>
+      <c r="AO70">
+        <v>0.9954230610679756</v>
+      </c>
+      <c r="AP70">
+        <v>0.9961183722182754</v>
+      </c>
+      <c r="AQ70">
+        <v>0.9957840405449888</v>
+      </c>
+      <c r="AR70">
+        <v>0.994164105747484</v>
+      </c>
+      <c r="AT70">
+        <v>0.9982722938592252</v>
+      </c>
+      <c r="AU70">
+        <v>0.9982932416401266</v>
+      </c>
+    </row>
+    <row r="71" spans="1:47">
+      <c r="A71" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E71">
+        <v>6.118887624898964e-10</v>
+      </c>
+      <c r="F71">
+        <v>6.027827100894618e-10</v>
+      </c>
+      <c r="G71">
+        <v>3.161141760107836e-10</v>
+      </c>
+      <c r="H71">
+        <v>3.463286537520303e-10</v>
+      </c>
+      <c r="I71">
+        <v>4.138836763642353e-09</v>
+      </c>
+      <c r="J71">
+        <v>0.001738548867056378</v>
+      </c>
+      <c r="K71">
+        <v>5.121145792738907e-12</v>
+      </c>
+      <c r="L71">
+        <v>0.002402394839341668</v>
+      </c>
+      <c r="S71">
+        <v>2.009171697478235e-13</v>
+      </c>
+      <c r="T71">
+        <v>0.3081215994944272</v>
+      </c>
+      <c r="U71">
+        <v>1.342123521745681e-11</v>
+      </c>
+      <c r="W71">
+        <v>4.852362995773443e-11</v>
+      </c>
+      <c r="AB71">
+        <v>6.698609815256341e-09</v>
+      </c>
+      <c r="AD71">
+        <v>2.587755705747711e-12</v>
+      </c>
+      <c r="AH71">
+        <v>1.055981095770826e-06</v>
+      </c>
+      <c r="AK71">
+        <v>0.3082365922215961</v>
+      </c>
+      <c r="AL71">
+        <v>9.420748849838292e-12</v>
+      </c>
+      <c r="AM71">
+        <v>1.826671441642076e-07</v>
+      </c>
+      <c r="AN71">
+        <v>1.420619884916279e-08</v>
+      </c>
+      <c r="AO71">
+        <v>1.314254369822792e-13</v>
+      </c>
+      <c r="AP71">
+        <v>4.897339395251378e-14</v>
+      </c>
+      <c r="AQ71">
+        <v>8.034221407315285e-14</v>
+      </c>
+      <c r="AR71">
+        <v>5.632473818354068e-13</v>
+      </c>
+      <c r="AT71">
+        <v>3.825629040998091e-16</v>
+      </c>
+      <c r="AU71">
+        <v>3.555783699546099e-16</v>
+      </c>
+    </row>
+    <row r="72" spans="1:47">
+      <c r="A72" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E72">
+        <v>-0.2811848550942936</v>
+      </c>
+      <c r="F72">
+        <v>-0.2814324493726936</v>
+      </c>
+      <c r="G72">
+        <v>-0.3922732890362104</v>
+      </c>
+      <c r="H72">
+        <v>-0.3941581838529901</v>
+      </c>
+      <c r="I72">
+        <v>0.4132943984416471</v>
+      </c>
+      <c r="K72">
+        <v>0.2885667509065257</v>
+      </c>
+      <c r="L72">
+        <v>-0.1084991086090616</v>
+      </c>
+      <c r="U72">
+        <v>-0.3625321342806586</v>
+      </c>
+      <c r="W72">
+        <v>0.2486516733161551</v>
+      </c>
+      <c r="AB72">
+        <v>-0.4112150638838513</v>
+      </c>
+      <c r="AD72">
+        <v>0.3460740784427703</v>
+      </c>
+      <c r="AL72">
+        <v>-0.3614719483786515</v>
+      </c>
+    </row>
+    <row r="73" spans="1:47">
+      <c r="A73" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E73">
+        <v>0.330132220368927</v>
+      </c>
+      <c r="F73">
+        <v>0.3296883923188338</v>
+      </c>
+      <c r="G73">
+        <v>0.1653585461117266</v>
+      </c>
+      <c r="H73">
+        <v>0.1631553957218162</v>
+      </c>
+      <c r="I73">
+        <v>0.1418723425389022</v>
+      </c>
+      <c r="K73">
+        <v>0.3170442847604967</v>
+      </c>
+      <c r="L73">
+        <v>0.7119714254714065</v>
+      </c>
+      <c r="U73">
+        <v>0.202705328669441</v>
+      </c>
+      <c r="W73">
+        <v>0.39132901650359</v>
+      </c>
+      <c r="AB73">
+        <v>0.1440901770809046</v>
+      </c>
+      <c r="AD73">
+        <v>0.2254879123704915</v>
+      </c>
+      <c r="AL73">
+        <v>0.2041272009269792</v>
+      </c>
+    </row>
+    <row r="74" spans="1:47">
+      <c r="A74" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="L74">
+        <v>0.7281061187981911</v>
+      </c>
+      <c r="U74">
+        <v>0.9999671814963226</v>
+      </c>
+    </row>
+    <row r="75" spans="1:47">
+      <c r="A75" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="L75">
+        <v>0.003151144836673459</v>
+      </c>
+      <c r="U75">
+        <v>1.803740725876483e-26</v>
+      </c>
+    </row>
+    <row r="76" spans="1:47">
+      <c r="A76" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E76">
+        <v>-0.9547354103992944</v>
+      </c>
+      <c r="F76">
+        <v>-0.9546174657630662</v>
+      </c>
+      <c r="G76">
+        <v>-0.9163798621091311</v>
+      </c>
+      <c r="H76">
+        <v>-0.9145972469340773</v>
+      </c>
+      <c r="I76">
+        <v>0.8995967572609974</v>
+      </c>
+      <c r="J76">
+        <v>-0.9189249237565038</v>
+      </c>
+      <c r="K76">
+        <v>0.976737949929397</v>
+      </c>
+      <c r="L76">
+        <v>-0.8083867248969758</v>
+      </c>
+      <c r="S76">
+        <v>0.9414015582273561</v>
+      </c>
+      <c r="T76">
+        <v>0.5164051070944838</v>
+      </c>
+      <c r="U76">
+        <v>-0.913967669993238</v>
+      </c>
+      <c r="W76">
+        <v>0.9868181412991371</v>
+      </c>
+      <c r="AB76">
+        <v>-0.913029820202609</v>
+      </c>
+      <c r="AD76">
+        <v>0.9279170160692215</v>
+      </c>
+      <c r="AH76">
+        <v>-0.8490654032137039</v>
+      </c>
+      <c r="AK76">
+        <v>0.1719252498854831</v>
+      </c>
+      <c r="AL76">
+        <v>-0.9154250367556255</v>
+      </c>
+      <c r="AO76">
+        <v>0.9308925866856196</v>
+      </c>
+      <c r="AP76">
+        <v>0.9334723072565748</v>
+      </c>
+      <c r="AQ76">
+        <v>0.9322087592173617</v>
+      </c>
+      <c r="AR76">
+        <v>0.9756350947264402</v>
+      </c>
+      <c r="AT76">
+        <v>0.9526970740547628</v>
+      </c>
+      <c r="AU76">
+        <v>0.9524470434509066</v>
+      </c>
+    </row>
+    <row r="77" spans="1:47">
+      <c r="A77" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E77">
+        <v>1.126005402774466e-07</v>
+      </c>
+      <c r="F77">
+        <v>1.143430223966048e-07</v>
+      </c>
+      <c r="G77">
+        <v>4.11372234598615e-06</v>
+      </c>
+      <c r="H77">
+        <v>4.650346083273934e-06</v>
+      </c>
+      <c r="I77">
+        <v>1.187557296459353e-05</v>
+      </c>
+      <c r="J77">
+        <v>3.436696800359828e-06</v>
+      </c>
+      <c r="K77">
+        <v>2.175865702216742e-09</v>
+      </c>
+      <c r="L77">
+        <v>0.0004663489772589666</v>
+      </c>
+      <c r="S77">
+        <v>5.148002488427879e-07</v>
+      </c>
+      <c r="T77">
+        <v>0.05868216485485393</v>
+      </c>
+      <c r="U77">
+        <v>4.853085452282181e-06</v>
+      </c>
+      <c r="W77">
+        <v>7.362962753654232e-11</v>
+      </c>
+      <c r="AB77">
+        <v>5.168525858888892e-06</v>
+      </c>
+      <c r="AD77">
+        <v>1.731571073968271e-06</v>
+      </c>
+      <c r="AH77">
+        <v>0.0001223065058113874</v>
+      </c>
+      <c r="AK77">
+        <v>0.5567244317508093</v>
+      </c>
+      <c r="AL77">
+        <v>4.39442242211978e-06</v>
+      </c>
+      <c r="AO77">
+        <v>1.353441356156443e-06</v>
+      </c>
+      <c r="AP77">
+        <v>1.083359553911366e-06</v>
+      </c>
+      <c r="AQ77">
+        <v>1.209460535198678e-06</v>
+      </c>
+      <c r="AR77">
+        <v>2.866134070073456e-09</v>
+      </c>
+      <c r="AT77">
+        <v>1.46010807344558e-07</v>
+      </c>
+      <c r="AU77">
+        <v>1.506208252236943e-07</v>
+      </c>
+    </row>
+    <row r="78" spans="1:47">
+      <c r="A78" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E78">
+        <v>0.9483184117359873</v>
+      </c>
+      <c r="F78">
+        <v>0.9484722661969887</v>
+      </c>
+      <c r="G78">
+        <v>0.9809398585679833</v>
+      </c>
+      <c r="H78">
+        <v>0.9816814602119017</v>
+      </c>
+      <c r="I78">
+        <v>-0.9832549228117949</v>
+      </c>
+      <c r="J78">
+        <v>0.5899197910245244</v>
+      </c>
+      <c r="K78">
+        <v>-0.9411714065295064</v>
+      </c>
+      <c r="L78">
+        <v>0.6642153083385124</v>
+      </c>
+      <c r="S78">
+        <v>-0.9736163956401067</v>
+      </c>
+      <c r="U78">
+        <v>0.9895522034203283</v>
+      </c>
+      <c r="W78">
+        <v>-0.9233643617373165</v>
+      </c>
+      <c r="AB78">
+        <v>0.971533552704981</v>
+      </c>
+      <c r="AD78">
+        <v>-0.9828895494677878</v>
+      </c>
+      <c r="AH78">
+        <v>0.9653860400621207</v>
+      </c>
+      <c r="AK78">
+        <v>-0.4023341428296641</v>
+      </c>
+      <c r="AL78">
+        <v>0.9892138740562539</v>
+      </c>
+      <c r="AM78">
+        <v>-0.8492410912378013</v>
+      </c>
+      <c r="AO78">
+        <v>-0.9832947981469746</v>
+      </c>
+      <c r="AP78">
+        <v>-0.9820381497160633</v>
+      </c>
+      <c r="AQ78">
+        <v>-0.9826654398582091</v>
+      </c>
+      <c r="AR78">
+        <v>-0.9370093219567843</v>
+      </c>
+      <c r="AT78">
+        <v>-0.9695388200080677</v>
+      </c>
+      <c r="AU78">
+        <v>-0.9697408451798699</v>
+      </c>
+    </row>
+    <row r="79" spans="1:47">
+      <c r="A79" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E79">
+        <v>2.459895080148736e-07</v>
+      </c>
+      <c r="F79">
+        <v>2.417095803699158e-07</v>
+      </c>
+      <c r="G79">
+        <v>6.644220757703679e-10</v>
+      </c>
+      <c r="H79">
+        <v>5.244785244969228e-10</v>
+      </c>
+      <c r="I79">
+        <v>3.070294107868868e-10</v>
+      </c>
+      <c r="J79">
+        <v>0.02637953988089273</v>
+      </c>
+      <c r="K79">
+        <v>5.267856135115139e-07</v>
+      </c>
+      <c r="L79">
+        <v>0.009573968902960906</v>
+      </c>
+      <c r="S79">
+        <v>4.600609151383871e-09</v>
+      </c>
+      <c r="U79">
+        <v>1.836103681899793e-11</v>
+      </c>
+      <c r="W79">
+        <v>2.475509863704891e-06</v>
+      </c>
+      <c r="AB79">
+        <v>7.22521476463563e-09</v>
+      </c>
+      <c r="AD79">
+        <v>3.492073888774187e-10</v>
+      </c>
+      <c r="AH79">
+        <v>2.304443916552992e-08</v>
+      </c>
+      <c r="AK79">
+        <v>0.1538217395921746</v>
+      </c>
+      <c r="AL79">
+        <v>2.221394520785121e-11</v>
+      </c>
+      <c r="AM79">
+        <v>0.0001215033863076884</v>
+      </c>
+      <c r="AO79">
+        <v>3.026946722078125e-10</v>
+      </c>
+      <c r="AP79">
+        <v>4.664696116336318e-10</v>
+      </c>
+      <c r="AQ79">
+        <v>3.773824745170886e-10</v>
+      </c>
+      <c r="AR79">
+        <v>7.866704144199581e-07</v>
+      </c>
+      <c r="AT79">
+        <v>1.080073767774427e-08</v>
+      </c>
+      <c r="AU79">
+        <v>1.038255208381475e-08</v>
+      </c>
+    </row>
+    <row r="80" spans="1:47">
+      <c r="A80" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E80">
+        <v>-0.9852214045184147</v>
+      </c>
+      <c r="F80">
+        <v>-0.9852844269223294</v>
+      </c>
+      <c r="G80">
+        <v>-0.9943519779052936</v>
+      </c>
+      <c r="H80">
+        <v>-0.9942227743926205</v>
+      </c>
+      <c r="I80">
+        <v>0.9908138297294077</v>
+      </c>
+      <c r="J80">
+        <v>-0.7252399346308369</v>
+      </c>
+      <c r="K80">
+        <v>0.9867837978955464</v>
+      </c>
+      <c r="L80">
+        <v>-0.7398435593637228</v>
+      </c>
+      <c r="S80">
+        <v>0.9969798319388482</v>
+      </c>
+      <c r="T80">
+        <v>0.2080675413431408</v>
+      </c>
+      <c r="U80">
+        <v>-0.9987963944836556</v>
+      </c>
+      <c r="W80">
+        <v>0.9775387312427805</v>
+      </c>
+      <c r="AB80">
+        <v>-0.9877631002654099</v>
+      </c>
+      <c r="AD80">
+        <v>0.9989647876827812</v>
+      </c>
+      <c r="AH80">
+        <v>-0.9623244501112028</v>
+      </c>
+      <c r="AK80">
+        <v>0.3418570331528456</v>
+      </c>
+      <c r="AL80">
+        <v>-0.9990325882090055</v>
+      </c>
+      <c r="AP80">
+        <v>0.9999673066980268</v>
+      </c>
+      <c r="AQ80">
+        <v>0.9999915843014184</v>
+      </c>
+      <c r="AR80">
+        <v>0.9821623095497112</v>
+      </c>
+      <c r="AT80">
+        <v>0.9978048828485617</v>
+      </c>
+      <c r="AU80">
+        <v>0.9978549734700346</v>
+      </c>
+    </row>
+    <row r="81" spans="1:47">
+      <c r="A81" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E81">
+        <v>1.457127280765387e-10</v>
+      </c>
+      <c r="F81">
+        <v>1.420432462149785e-10</v>
+      </c>
+      <c r="G81">
+        <v>4.630290675795246e-13</v>
+      </c>
+      <c r="H81">
+        <v>5.301824991900763e-13</v>
+      </c>
+      <c r="I81">
+        <v>8.506179640358071e-12</v>
+      </c>
+      <c r="J81">
+        <v>0.003332815746129272</v>
+      </c>
+      <c r="K81">
+        <v>7.478260541528191e-11</v>
+      </c>
+      <c r="L81">
+        <v>0.002486874502334657</v>
+      </c>
+      <c r="S81">
+        <v>1.088594985859328e-14</v>
+      </c>
+      <c r="T81">
+        <v>0.4753477073111966</v>
+      </c>
+      <c r="U81">
+        <v>4.378008867107167e-17</v>
+      </c>
+      <c r="W81">
+        <v>1.766452049744939e-09</v>
+      </c>
+      <c r="AB81">
+        <v>4.721770981709709e-11</v>
+      </c>
+      <c r="AD81">
+        <v>1.772984687432034e-17</v>
+      </c>
+      <c r="AH81">
+        <v>3.806500148244266e-08</v>
+      </c>
+      <c r="AK81">
+        <v>0.2315703225600161</v>
+      </c>
+      <c r="AL81">
+        <v>1.181026876072803e-17</v>
+      </c>
+      <c r="AP81">
+        <v>1.762845644100452e-26</v>
+      </c>
+      <c r="AQ81">
+        <v>5.128911427019705e-30</v>
+      </c>
+      <c r="AR81">
+        <v>4.475741820876993e-10</v>
+      </c>
+      <c r="AT81">
+        <v>1.607661051952703e-15</v>
+      </c>
+      <c r="AU81">
+        <v>1.399880407485139e-15</v>
+      </c>
+    </row>
+    <row r="82" spans="1:47">
+      <c r="A82" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E82">
+        <v>-0.985578327249872</v>
+      </c>
+      <c r="F82">
+        <v>-0.9856388433906569</v>
+      </c>
+      <c r="G82">
+        <v>-0.9938775883026451</v>
+      </c>
+      <c r="H82">
+        <v>-0.9937256365292031</v>
+      </c>
+      <c r="I82">
+        <v>0.9899031821137704</v>
+      </c>
+      <c r="J82">
+        <v>-0.7294835781502791</v>
+      </c>
+      <c r="K82">
+        <v>0.987833178919227</v>
+      </c>
+      <c r="L82">
+        <v>-0.7412764266945745</v>
+      </c>
+      <c r="S82">
+        <v>0.9972037422306451</v>
+      </c>
+      <c r="T82">
+        <v>0.2158602520913378</v>
+      </c>
+      <c r="U82">
+        <v>-0.9983828765462118</v>
+      </c>
+      <c r="W82">
+        <v>0.9790440468625448</v>
+      </c>
+      <c r="AB82">
+        <v>-0.987069414882645</v>
+      </c>
+      <c r="AD82">
+        <v>0.9988011141958546</v>
+      </c>
+      <c r="AH82">
+        <v>-0.9605243769874529</v>
+      </c>
+      <c r="AK82">
+        <v>0.3381369932570625</v>
+      </c>
+      <c r="AL82">
+        <v>-0.9986513422010488</v>
+      </c>
+      <c r="AQ82">
+        <v>0.9999920654302885</v>
+      </c>
+      <c r="AR82">
+        <v>0.9836101787530238</v>
+      </c>
+      <c r="AT82">
+        <v>0.9982755118684463</v>
+      </c>
+      <c r="AU82">
+        <v>0.9983211552335075</v>
+      </c>
+    </row>
+    <row r="83" spans="1:47">
+      <c r="A83" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E83">
+        <v>1.259291916325882e-10</v>
+      </c>
+      <c r="F83">
+        <v>1.228077413372592e-10</v>
+      </c>
+      <c r="G83">
+        <v>7.504514649165654e-13</v>
+      </c>
+      <c r="H83">
+        <v>8.690879220860433e-13</v>
+      </c>
+      <c r="I83">
+        <v>1.496869863967264e-11</v>
+      </c>
+      <c r="J83">
+        <v>0.003066658799943562</v>
+      </c>
+      <c r="K83">
+        <v>4.562519883831958e-11</v>
+      </c>
+      <c r="L83">
+        <v>0.002414040170124065</v>
+      </c>
+      <c r="S83">
+        <v>6.860432654714719e-15</v>
+      </c>
+      <c r="T83">
+        <v>0.4585846342449925</v>
+      </c>
+      <c r="U83">
+        <v>2.573034617245076e-16</v>
+      </c>
+      <c r="W83">
+        <v>1.168836022697467e-09</v>
+      </c>
+      <c r="AB83">
+        <v>6.563519860481108e-11</v>
+      </c>
+      <c r="AD83">
+        <v>4.276051438561285e-17</v>
+      </c>
+      <c r="AH83">
+        <v>5.016967442992055e-08</v>
+      </c>
+      <c r="AK83">
+        <v>0.2370189818561937</v>
+      </c>
+      <c r="AL83">
+        <v>8.662578250824532e-17</v>
+      </c>
+      <c r="AQ83">
+        <v>3.602673406421085e-30</v>
+      </c>
+      <c r="AR83">
+        <v>2.7016876324389e-10</v>
+      </c>
+      <c r="AT83">
+        <v>3.783100248544292e-16</v>
+      </c>
+      <c r="AU83">
+        <v>3.221012007813667e-16</v>
+      </c>
+    </row>
+    <row r="84" spans="1:47">
+      <c r="A84" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E84">
+        <v>-0.9854103772218171</v>
+      </c>
+      <c r="F84">
+        <v>-0.9854721289227617</v>
+      </c>
+      <c r="G84">
+        <v>-0.9941192080603973</v>
+      </c>
+      <c r="H84">
+        <v>-0.9939784659750371</v>
+      </c>
+      <c r="I84">
+        <v>0.9903596893681428</v>
+      </c>
+      <c r="J84">
+        <v>-0.7273981624187015</v>
+      </c>
+      <c r="K84">
+        <v>0.9873240980806275</v>
+      </c>
+      <c r="L84">
+        <v>-0.7405759296862728</v>
+      </c>
+      <c r="S84">
+        <v>0.9971015816658747</v>
+      </c>
+      <c r="T84">
+        <v>0.2120231226336453</v>
+      </c>
+      <c r="U84">
+        <v>-0.9985947550319659</v>
+      </c>
+      <c r="W84">
+        <v>0.9783103098181128</v>
+      </c>
+      <c r="AB84">
+        <v>-0.9874188791994482</v>
+      </c>
+      <c r="AD84">
+        <v>0.9988899177955726</v>
+      </c>
+      <c r="AH84">
+        <v>-0.9614187761992583</v>
+      </c>
+      <c r="AK84">
+        <v>0.3399705267258462</v>
+      </c>
+      <c r="AL84">
+        <v>-0.9988473227679201</v>
+      </c>
+      <c r="AR84">
+        <v>0.9829049706207966</v>
+      </c>
+      <c r="AT84">
+        <v>0.99805178735295</v>
+      </c>
+      <c r="AU84">
+        <v>0.9980996232682187</v>
+      </c>
+    </row>
+    <row r="85" spans="1:47">
+      <c r="A85" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E85">
+        <v>1.349397125276927e-10</v>
+      </c>
+      <c r="F85">
+        <v>1.315664217673582e-10</v>
+      </c>
+      <c r="G85">
+        <v>5.896953541428401e-13</v>
+      </c>
+      <c r="H85">
+        <v>6.793982153534008e-13</v>
+      </c>
+      <c r="I85">
+        <v>1.135140365003317e-11</v>
+      </c>
+      <c r="J85">
+        <v>0.003195274527011736</v>
+      </c>
+      <c r="K85">
+        <v>5.828263434888369e-11</v>
+      </c>
+      <c r="L85">
+        <v>0.002449433441997119</v>
+      </c>
+      <c r="S85">
+        <v>8.506668553106146e-15</v>
+      </c>
+      <c r="T85">
+        <v>0.4668025361330758</v>
+      </c>
+      <c r="U85">
+        <v>1.108398946992209e-16</v>
+      </c>
+      <c r="W85">
+        <v>1.43463217722484e-09</v>
+      </c>
+      <c r="AB85">
+        <v>5.572763240651184e-11</v>
+      </c>
+      <c r="AD85">
+        <v>2.695190942862752e-17</v>
+      </c>
+      <c r="AH85">
+        <v>4.380953168398426e-08</v>
+      </c>
+      <c r="AK85">
+        <v>0.2343237080780968</v>
+      </c>
+      <c r="AL85">
+        <v>3.378044193075108e-17</v>
+      </c>
+      <c r="AR85">
+        <v>3.473348108255024e-10</v>
+      </c>
+      <c r="AT85">
+        <v>7.861336487376421e-16</v>
+      </c>
+      <c r="AU85">
+        <v>6.772687120699044e-16</v>
+      </c>
+    </row>
+    <row r="86" spans="1:47">
+      <c r="A86" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E86">
+        <v>-0.9768763946644664</v>
+      </c>
+      <c r="F86">
+        <v>-0.9768742322295582</v>
+      </c>
+      <c r="G86">
+        <v>-0.9667358465518776</v>
+      </c>
+      <c r="H86">
+        <v>-0.9660183078106274</v>
+      </c>
+      <c r="I86">
+        <v>0.9532906425701579</v>
+      </c>
+      <c r="J86">
+        <v>-0.8155378042279541</v>
+      </c>
+      <c r="K86">
+        <v>0.9947489167811698</v>
+      </c>
+      <c r="L86">
+        <v>-0.7691543290159751</v>
+      </c>
+      <c r="S86">
+        <v>0.9841751089525905</v>
+      </c>
+      <c r="T86">
+        <v>0.3877165312408835</v>
+      </c>
+      <c r="U86">
+        <v>-0.9720107936866854</v>
+      </c>
+      <c r="W86">
+        <v>0.9963808981443711</v>
+      </c>
+      <c r="AB86">
+        <v>-0.9549330238610318</v>
+      </c>
+      <c r="AD86">
+        <v>0.978608671923294</v>
+      </c>
+      <c r="AH86">
+        <v>-0.908130589613076</v>
+      </c>
+      <c r="AK86">
+        <v>0.2435007696481785</v>
+      </c>
+      <c r="AL86">
+        <v>-0.9730141616051979</v>
+      </c>
+      <c r="AT86">
+        <v>0.9919096503714275</v>
+      </c>
+      <c r="AU86">
+        <v>0.991842134729282</v>
+      </c>
+    </row>
+    <row r="87" spans="1:47">
+      <c r="A87" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E87">
+        <v>2.099942890732408e-09</v>
+      </c>
+      <c r="F87">
+        <v>2.101111614780294e-09</v>
+      </c>
+      <c r="G87">
+        <v>1.820498773963477e-08</v>
+      </c>
+      <c r="H87">
+        <v>2.065974051422665e-08</v>
+      </c>
+      <c r="I87">
+        <v>1.355323872407573e-07</v>
+      </c>
+      <c r="J87">
+        <v>0.0003773820134933402</v>
+      </c>
+      <c r="K87">
+        <v>2.99290916200264e-13</v>
+      </c>
+      <c r="L87">
+        <v>0.001301121598588187</v>
+      </c>
+      <c r="S87">
+        <v>2.191610088885505e-10</v>
+      </c>
+      <c r="T87">
+        <v>0.1707646512284161</v>
+      </c>
+      <c r="U87">
+        <v>6.53497234745111e-09</v>
+      </c>
+      <c r="W87">
+        <v>3.219040113187837e-14</v>
+      </c>
+      <c r="AB87">
+        <v>1.097303300998446e-07</v>
+      </c>
+      <c r="AD87">
+        <v>1.32107355531212e-09</v>
+      </c>
+      <c r="AH87">
+        <v>7.103060967814287e-06</v>
+      </c>
+      <c r="AK87">
+        <v>0.4015321711671667</v>
+      </c>
+      <c r="AL87">
+        <v>5.260895665196323e-09</v>
+      </c>
+      <c r="AT87">
+        <v>3.978823014825171e-12</v>
+      </c>
+      <c r="AU87">
+        <v>4.181643624203664e-12</v>
+      </c>
+    </row>
+    <row r="88" spans="1:47">
+      <c r="A88" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B88">
+        <v>0.3008349780397482</v>
+      </c>
+      <c r="C88">
+        <v>0.9916117047515576</v>
+      </c>
+      <c r="D88">
+        <v>0.99161047649387</v>
+      </c>
+      <c r="E88">
+        <v>0.9119852575499524</v>
+      </c>
+      <c r="F88">
+        <v>0.9121859071683988</v>
+      </c>
+      <c r="G88">
+        <v>0.958064498328466</v>
+      </c>
+      <c r="H88">
+        <v>0.9592620446218483</v>
+      </c>
+      <c r="I88">
+        <v>-0.9666522280399391</v>
+      </c>
+      <c r="J88">
+        <v>0.495384950091573</v>
+      </c>
+      <c r="K88">
+        <v>-0.8946153720326361</v>
+      </c>
+      <c r="L88">
+        <v>0.6103226965631788</v>
+      </c>
+      <c r="M88">
+        <v>-0.9568036484748789</v>
+      </c>
+      <c r="N88">
+        <v>0.5026853993352562</v>
+      </c>
+      <c r="O88">
+        <v>-0.9637560329186122</v>
+      </c>
+      <c r="P88">
+        <v>-0.9414077685927094</v>
+      </c>
+      <c r="Q88">
+        <v>-0.9524650912613993</v>
+      </c>
+      <c r="R88">
+        <v>-0.9455397040937513</v>
+      </c>
+      <c r="S88">
+        <v>-0.9411525340508908</v>
+      </c>
+      <c r="U88">
+        <v>0.9664987015550454</v>
+      </c>
+      <c r="W88">
+        <v>-0.8699529724089452</v>
+      </c>
+      <c r="X88">
+        <v>-0.9853242019326151</v>
+      </c>
+      <c r="Y88">
+        <v>-0.9858776468923098</v>
+      </c>
+      <c r="Z88">
+        <v>0.9605700949128719</v>
+      </c>
+      <c r="AA88">
+        <v>0.9413849984973034</v>
+      </c>
+      <c r="AB88">
+        <v>0.9514763436566279</v>
+      </c>
+      <c r="AC88">
+        <v>0.9467620183306776</v>
+      </c>
+      <c r="AD88">
+        <v>-0.9552448163896448</v>
+      </c>
+      <c r="AE88">
+        <v>0.971296525622097</v>
+      </c>
+      <c r="AF88">
+        <v>0.9650727938001956</v>
+      </c>
+      <c r="AG88">
+        <v>0.9668921960380846</v>
+      </c>
+      <c r="AH88">
+        <v>0.9598747581334081</v>
+      </c>
+      <c r="AI88">
+        <v>-0.9105772810838775</v>
+      </c>
+      <c r="AJ88">
+        <v>-0.9287246311823106</v>
+      </c>
+      <c r="AK88">
+        <v>-0.454560592492461</v>
+      </c>
+      <c r="AL88">
+        <v>0.9656605361398518</v>
+      </c>
+      <c r="AM88">
+        <v>-0.779652142580764</v>
+      </c>
+      <c r="AN88">
+        <v>0.991666546193634</v>
+      </c>
+      <c r="AO88">
+        <v>-0.9542741393499803</v>
+      </c>
+      <c r="AP88">
+        <v>-0.9520477072505564</v>
+      </c>
+      <c r="AQ88">
+        <v>-0.9531524988422063</v>
+      </c>
+      <c r="AR88">
+        <v>-0.8850033809065162</v>
+      </c>
+      <c r="AT88">
+        <v>-0.9324570487310585</v>
+      </c>
+      <c r="AU88">
+        <v>-0.9327437003709087</v>
+      </c>
+    </row>
+    <row r="89" spans="1:47">
+      <c r="A89" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B89">
+        <v>0.2959588824241783</v>
+      </c>
+      <c r="C89">
+        <v>4.939863534581193e-12</v>
+      </c>
+      <c r="D89">
+        <v>4.944191990137703e-12</v>
+      </c>
+      <c r="E89">
+        <v>5.539499028004352e-06</v>
+      </c>
+      <c r="F89">
+        <v>5.46659182588517e-06</v>
+      </c>
+      <c r="G89">
+        <v>7.17186363180735e-08</v>
+      </c>
+      <c r="H89">
+        <v>6.043230565726131e-08</v>
+      </c>
+      <c r="I89">
+        <v>1.84779432408171e-08</v>
+      </c>
+      <c r="J89">
+        <v>0.07166552146163543</v>
+      </c>
+      <c r="K89">
+        <v>1.570369286138462e-05</v>
+      </c>
+      <c r="L89">
+        <v>0.02045023863129431</v>
+      </c>
+      <c r="M89">
+        <v>8.54338685280258e-08</v>
+      </c>
+      <c r="N89">
+        <v>0.06694533268531203</v>
+      </c>
+      <c r="O89">
+        <v>3.026456816620941e-08</v>
+      </c>
+      <c r="P89">
+        <v>5.144799863848128e-07</v>
+      </c>
+      <c r="Q89">
+        <v>1.502840813504757e-07</v>
+      </c>
+      <c r="R89">
+        <v>3.34765428180671e-07</v>
+      </c>
+      <c r="S89">
+        <v>5.277785505788568e-07</v>
+      </c>
+      <c r="U89">
+        <v>1.8987935818479e-08</v>
+      </c>
+      <c r="W89">
+        <v>5.246672076020381e-05</v>
+      </c>
+      <c r="X89">
+        <v>1.397671487215241e-10</v>
+      </c>
+      <c r="Y89">
+        <v>1.111105043388671e-10</v>
+      </c>
+      <c r="Z89">
+        <v>4.982702187585983e-08</v>
+      </c>
+      <c r="AA89">
+        <v>5.156550228335669e-07</v>
+      </c>
+      <c r="AB89">
+        <v>1.696759524968589e-07</v>
+      </c>
+      <c r="AC89">
+        <v>2.929221069256066e-07</v>
+      </c>
+      <c r="AD89">
+        <v>1.053250301444309e-07</v>
+      </c>
+      <c r="AE89">
+        <v>7.589879327642811e-09</v>
+      </c>
+      <c r="AF89">
+        <v>2.430781742060041e-08</v>
+      </c>
+      <c r="AG89">
+        <v>1.770358459481063e-08</v>
+      </c>
+      <c r="AH89">
+        <v>5.525342041179935e-08</v>
+      </c>
+      <c r="AI89">
+        <v>6.073902222217334e-06</v>
+      </c>
+      <c r="AJ89">
+        <v>1.621264618191856e-06</v>
+      </c>
+      <c r="AK89">
+        <v>0.102480310408515</v>
+      </c>
+      <c r="AL89">
+        <v>2.198256874667545e-08</v>
+      </c>
+      <c r="AM89">
+        <v>0.001008662612190504</v>
+      </c>
+      <c r="AN89">
+        <v>4.749786643603936e-12</v>
+      </c>
+      <c r="AO89">
+        <v>1.195427430628683e-07</v>
+      </c>
+      <c r="AP89">
+        <v>1.582331305582706e-07</v>
+      </c>
+      <c r="AQ89">
+        <v>1.379136819393367e-07</v>
+      </c>
+      <c r="AR89">
+        <v>2.594784390446891e-05</v>
+      </c>
+      <c r="AT89">
+        <v>1.183771160143539e-06</v>
+      </c>
+      <c r="AU89">
+        <v>1.154673946976848e-06</v>
+      </c>
+    </row>
+    <row r="90" spans="1:47">
+      <c r="A90" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E90">
+        <v>-0.9887203762183088</v>
+      </c>
+      <c r="F90">
+        <v>-0.9887539469864782</v>
+      </c>
+      <c r="G90">
+        <v>-0.9897765915050591</v>
+      </c>
+      <c r="H90">
+        <v>-0.9893733817059298</v>
+      </c>
+      <c r="I90">
+        <v>0.9833404908581446</v>
+      </c>
+      <c r="J90">
+        <v>-0.7660575013295405</v>
+      </c>
+      <c r="K90">
+        <v>0.994856663280731</v>
+      </c>
+      <c r="L90">
+        <v>-0.7579640193062145</v>
+      </c>
+      <c r="S90">
+        <v>0.9970215864429942</v>
+      </c>
+      <c r="T90">
+        <v>0.2698817135399763</v>
+      </c>
+      <c r="U90">
+        <v>-0.993555672442726</v>
+      </c>
+      <c r="W90">
+        <v>0.9892500534507449</v>
+      </c>
+      <c r="AB90">
+        <v>-0.9828313989334929</v>
+      </c>
+      <c r="AD90">
+        <v>0.9962006869583584</v>
+      </c>
+      <c r="AH90">
+        <v>-0.9498161206140157</v>
+      </c>
+      <c r="AK90">
+        <v>0.3116764184970951</v>
+      </c>
+      <c r="AL90">
+        <v>-0.9940390987866903</v>
+      </c>
+      <c r="AU90">
+        <v>0.9999995461370768</v>
+      </c>
+    </row>
+    <row r="91" spans="1:47">
+      <c r="A91" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E91">
+        <v>2.902279263871663e-11</v>
+      </c>
+      <c r="F91">
+        <v>2.851042236257528e-11</v>
+      </c>
+      <c r="G91">
+        <v>1.612623226215339e-11</v>
+      </c>
+      <c r="H91">
+        <v>2.032133944257658e-11</v>
+      </c>
+      <c r="I91">
+        <v>2.977902133987403e-10</v>
+      </c>
+      <c r="J91">
+        <v>0.001399185042621358</v>
+      </c>
+      <c r="K91">
+        <v>2.643445436078823e-13</v>
+      </c>
+      <c r="L91">
+        <v>0.001683462769298953</v>
+      </c>
+      <c r="S91">
+        <v>1.001448385017415e-14</v>
+      </c>
+      <c r="T91">
+        <v>0.3507496739925651</v>
+      </c>
+      <c r="U91">
+        <v>1.019888617952641e-12</v>
+      </c>
+      <c r="W91">
+        <v>2.177230532828048e-11</v>
+      </c>
+      <c r="AB91">
+        <v>3.563442269661837e-10</v>
+      </c>
+      <c r="AD91">
+        <v>4.307091202960228e-14</v>
+      </c>
+      <c r="AH91">
+        <v>2.068754947756892e-07</v>
+      </c>
+      <c r="AK91">
+        <v>0.2780233465977132</v>
+      </c>
+      <c r="AL91">
+        <v>6.394544894919158e-13</v>
+      </c>
+      <c r="AU91">
+        <v>1.261943209164983e-37</v>
+      </c>
+    </row>
+    <row r="92" spans="1:47">
+      <c r="A92" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E92">
+        <v>-0.9886679040053925</v>
+      </c>
+      <c r="F92">
+        <v>-0.9887019539358394</v>
+      </c>
+      <c r="G92">
+        <v>-0.9898111175877811</v>
+      </c>
+      <c r="H92">
+        <v>-0.9894125511829784</v>
+      </c>
+      <c r="I92">
+        <v>0.983398697255278</v>
+      </c>
+      <c r="J92">
+        <v>-0.7654720411777913</v>
+      </c>
+      <c r="K92">
+        <v>0.9947659103243901</v>
+      </c>
+      <c r="L92">
+        <v>-0.7575225111990586</v>
+      </c>
+      <c r="S92">
+        <v>0.9970565957696969</v>
+      </c>
+      <c r="T92">
+        <v>0.2692991366146305</v>
+      </c>
+      <c r="U92">
+        <v>-0.9936368246108507</v>
+      </c>
+      <c r="W92">
+        <v>0.989130004540006</v>
+      </c>
+      <c r="AB92">
+        <v>-0.9828451725531314</v>
+      </c>
+      <c r="AD92">
+        <v>0.996251904529098</v>
+      </c>
+      <c r="AH92">
+        <v>-0.9498625558323001</v>
+      </c>
+      <c r="AK92">
+        <v>0.3118690446341261</v>
+      </c>
+      <c r="AL92">
+        <v>-0.9941174635425026</v>
+      </c>
+    </row>
+    <row r="93" spans="1:47">
+      <c r="A93" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E93">
+        <v>2.983897705770022e-11</v>
+      </c>
+      <c r="F93">
+        <v>2.93072006517942e-11</v>
+      </c>
+      <c r="G93">
+        <v>1.580338741594385e-11</v>
+      </c>
+      <c r="H93">
+        <v>1.987771188439306e-11</v>
+      </c>
+      <c r="I93">
+        <v>2.916384328435293e-10</v>
+      </c>
+      <c r="J93">
+        <v>0.001418368084132287</v>
+      </c>
+      <c r="K93">
+        <v>2.935370543713448e-13</v>
+      </c>
+      <c r="L93">
+        <v>0.001700196365018023</v>
+      </c>
+      <c r="S93">
+        <v>9.329334126065367e-15</v>
+      </c>
+      <c r="T93">
+        <v>0.3518311004846768</v>
+      </c>
+      <c r="U93">
+        <v>9.453794984662424e-13</v>
+      </c>
+      <c r="W93">
+        <v>2.32664736827694e-11</v>
+      </c>
+      <c r="AB93">
+        <v>3.546429250310024e-10</v>
+      </c>
+      <c r="AD93">
+        <v>3.970682857203682e-14</v>
+      </c>
+      <c r="AH93">
+        <v>2.057504974775948e-07</v>
+      </c>
+      <c r="AK93">
+        <v>0.2777106228536281</v>
+      </c>
+      <c r="AL93">
+        <v>5.907435066858639e-13</v>
       </c>
     </row>
   </sheetData>
